--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_21_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_21_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15939.158504889</v>
+        <v>124258.0162093943</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21132912.79784802</v>
+        <v>21118222.51054867</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4095267.473220179</v>
+        <v>4095980.014371521</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>56.37586062903344</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="I11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>56.37586062903344</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>64.00529135902983</v>
+      </c>
+      <c r="I12" t="n">
         <v>35.61136258595533</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>64.00529135902983</v>
-      </c>
-      <c r="G12" t="n">
-        <v>64.00529135902983</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>22.56862917338701</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>33.80723145564642</v>
       </c>
       <c r="R14" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="V14" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>75.37201941954103</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.60029354266159</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.34273879062272</v>
+        <v>17.77556708637184</v>
       </c>
       <c r="R15" t="n">
-        <v>84.56947841277972</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="S15" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1855,58 +1855,58 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>81.61928733384123</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U17" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="W17" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>89.71475821016372</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R18" t="n">
         <v>84.56947841277972</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>75.37201941954103</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>57.96571614961795</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>75.37201941954103</v>
+      </c>
+      <c r="G21" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="C21" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>67.27654854321852</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X21" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.72887202374255</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>69.92252789323216</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>19.83353858518305</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2441,28 +2441,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.12250269561248</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.39434727764328</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="V24" t="n">
-        <v>72.6063693281301</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>6.361719200771938</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.9951433092431541</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>89.75606647841524</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.72421471466632</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="U26" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="V26" t="n">
-        <v>64.00465730907622</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2678,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.361719200771955</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.39434727764328</v>
       </c>
       <c r="S27" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="T27" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="U27" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>85.72887202374257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.9951433092431541</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>89.75606647841506</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>85.72887202374255</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.12250269561248</v>
+        <v>11.92673027430376</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>77.82933620411144</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="W30" t="n">
-        <v>72.60636932813009</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="X30" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="Y30" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.9951433092431541</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>85.72887202374251</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="X32" t="n">
-        <v>97.33069030851793</v>
+        <v>89.75606647841524</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3152,28 +3152,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.12250269561248</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.97596335777131</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>85.96109627887672</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>89.75606647841524</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.9951433092431541</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>23.39890910037892</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.72421471466632</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="V35" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>40.60574820869732</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>89.75606647841524</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>97.33069030851793</v>
+        <v>89.75606647841524</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>85.72887202374255</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="V36" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="W36" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.9951433092431541</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>69.92252789323216</v>
       </c>
       <c r="J38" t="n">
-        <v>23.39890910037892</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>19.83353858518305</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>62.32996292336365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>89.75606647841524</v>
       </c>
       <c r="W39" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>85.72887202374257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.9951433092431541</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.72421471466632</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>64.00465730907622</v>
+        <v>97.80899837438137</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>93.84995920123554</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>96.33788002366984</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3863,25 +3863,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.12250269561248</v>
+        <v>11.92673027430376</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.39434727764328</v>
       </c>
       <c r="S42" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>72.6063693281301</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.9951433092431541</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>74.01642061605247</v>
       </c>
       <c r="C44" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>19.83353858518305</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>97.80899837438137</v>
       </c>
       <c r="S44" t="n">
-        <v>85.72887202374255</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,25 +4061,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.33069030851793</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.30559603852697</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.300773289603119</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.12250269561248</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>89.75606647841524</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>101.9028910972017</v>
       </c>
     </row>
     <row r="46">
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.9951433092431541</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.77223276228787</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="C11" t="n">
-        <v>69.77223276228787</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="D11" t="n">
-        <v>69.77223276228787</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="E11" t="n">
-        <v>69.77223276228787</v>
+        <v>191.3693559825538</v>
       </c>
       <c r="F11" t="n">
-        <v>69.77223276228787</v>
+        <v>134.4240422158534</v>
       </c>
       <c r="G11" t="n">
         <v>69.77223276228787</v>
       </c>
       <c r="H11" t="n">
-        <v>69.77223276228787</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="I11" t="n">
         <v>5.120423308722386</v>
       </c>
       <c r="J11" t="n">
-        <v>5.120423308722386</v>
+        <v>5.120423308722388</v>
       </c>
       <c r="K11" t="n">
-        <v>7.050050693765789</v>
+        <v>7.050050693765805</v>
       </c>
       <c r="L11" t="n">
-        <v>46.3456859521766</v>
+        <v>46.34568595217661</v>
       </c>
       <c r="M11" t="n">
         <v>109.7109243976161</v>
@@ -5074,19 +5074,19 @@
         <v>256.0211654361193</v>
       </c>
       <c r="U11" t="n">
-        <v>191.3693559825538</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="V11" t="n">
-        <v>134.4240422158534</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="W11" t="n">
-        <v>69.77223276228787</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="X11" t="n">
-        <v>69.77223276228787</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="Y11" t="n">
-        <v>69.77223276228787</v>
+        <v>256.0211654361193</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>170.3951155350002</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="C12" t="n">
-        <v>134.4240422158534</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="D12" t="n">
-        <v>134.4240422158534</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="E12" t="n">
-        <v>134.4240422158534</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="F12" t="n">
-        <v>69.77223276228787</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="G12" t="n">
-        <v>5.120423308722386</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="H12" t="n">
-        <v>5.120423308722386</v>
+        <v>41.09149662786919</v>
       </c>
       <c r="I12" t="n">
         <v>5.120423308722386</v>
@@ -5126,16 +5126,16 @@
         <v>5.120423308722386</v>
       </c>
       <c r="L12" t="n">
-        <v>68.48566175416191</v>
+        <v>22.00098250561112</v>
       </c>
       <c r="M12" t="n">
-        <v>131.8509001996014</v>
+        <v>85.36622095105065</v>
       </c>
       <c r="N12" t="n">
-        <v>195.216138645041</v>
+        <v>148.7314593964902</v>
       </c>
       <c r="O12" t="n">
-        <v>256.0211654361193</v>
+        <v>212.0966978419297</v>
       </c>
       <c r="P12" t="n">
         <v>256.0211654361193</v>
@@ -5150,22 +5150,22 @@
         <v>170.3951155350002</v>
       </c>
       <c r="T12" t="n">
-        <v>170.3951155350002</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="U12" t="n">
-        <v>170.3951155350002</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="V12" t="n">
-        <v>170.3951155350002</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="W12" t="n">
-        <v>170.3951155350002</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="X12" t="n">
-        <v>170.3951155350002</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="Y12" t="n">
-        <v>170.3951155350002</v>
+        <v>105.7433060814347</v>
       </c>
     </row>
     <row r="13">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.85692052276578</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="C14" t="n">
-        <v>89.85692052276578</v>
+        <v>92.56882788692121</v>
       </c>
       <c r="D14" t="n">
-        <v>89.85692052276578</v>
+        <v>92.56882788692121</v>
       </c>
       <c r="E14" t="n">
-        <v>89.85692052276578</v>
+        <v>92.56882788692121</v>
       </c>
       <c r="F14" t="n">
-        <v>89.85692052276578</v>
+        <v>92.56882788692121</v>
       </c>
       <c r="G14" t="n">
-        <v>7.413195943128176</v>
+        <v>92.56882788692121</v>
       </c>
       <c r="H14" t="n">
-        <v>7.413195943128176</v>
+        <v>92.56882788692121</v>
       </c>
       <c r="I14" t="n">
-        <v>7.413195943128176</v>
+        <v>27.91701843335574</v>
       </c>
       <c r="J14" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="K14" t="n">
-        <v>21.18357364821456</v>
+        <v>7.050050693765797</v>
       </c>
       <c r="L14" t="n">
-        <v>75.16870670940374</v>
+        <v>46.34568595217661</v>
       </c>
       <c r="M14" t="n">
-        <v>166.907006505615</v>
+        <v>109.7109243976161</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6453063018262</v>
+        <v>173.0761628430556</v>
       </c>
       <c r="O14" t="n">
-        <v>337.6943058037293</v>
+        <v>236.4414012884951</v>
       </c>
       <c r="P14" t="n">
-        <v>370.6597971564088</v>
+        <v>256.0211654361192</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.6597971564088</v>
+        <v>221.8724467940522</v>
       </c>
       <c r="R14" t="n">
-        <v>277.0588382785278</v>
+        <v>221.8724467940522</v>
       </c>
       <c r="S14" t="n">
-        <v>277.0588382785278</v>
+        <v>221.8724467940522</v>
       </c>
       <c r="T14" t="n">
-        <v>277.0588382785278</v>
+        <v>221.8724467940522</v>
       </c>
       <c r="U14" t="n">
-        <v>183.4578794006468</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="V14" t="n">
-        <v>89.85692052276578</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="W14" t="n">
-        <v>89.85692052276578</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="X14" t="n">
-        <v>89.85692052276578</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.85692052276578</v>
+        <v>157.2206373404867</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.54654889215952</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="C15" t="n">
-        <v>83.54654889215952</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="D15" t="n">
-        <v>83.54654889215952</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="E15" t="n">
-        <v>83.54654889215952</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="F15" t="n">
-        <v>83.54654889215952</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="G15" t="n">
-        <v>7.413195943128176</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="H15" t="n">
-        <v>7.413195943128176</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="I15" t="n">
-        <v>7.413195943128176</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="J15" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="K15" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="L15" t="n">
-        <v>43.08143125983008</v>
+        <v>22.00098250561112</v>
       </c>
       <c r="M15" t="n">
-        <v>134.8197310560413</v>
+        <v>85.36622095105064</v>
       </c>
       <c r="N15" t="n">
-        <v>226.5580308522524</v>
+        <v>148.7314593964902</v>
       </c>
       <c r="O15" t="n">
-        <v>317.2247932514005</v>
+        <v>212.0966978419297</v>
       </c>
       <c r="P15" t="n">
-        <v>370.6597971564088</v>
+        <v>256.0211654361192</v>
       </c>
       <c r="Q15" t="n">
-        <v>356.1721822163859</v>
+        <v>238.0660471670568</v>
       </c>
       <c r="R15" t="n">
-        <v>270.7484666479215</v>
+        <v>173.4142377134913</v>
       </c>
       <c r="S15" t="n">
-        <v>177.1475077700405</v>
+        <v>108.7624282599258</v>
       </c>
       <c r="T15" t="n">
-        <v>177.1475077700405</v>
+        <v>108.7624282599258</v>
       </c>
       <c r="U15" t="n">
-        <v>177.1475077700405</v>
+        <v>108.7624282599258</v>
       </c>
       <c r="V15" t="n">
-        <v>177.1475077700405</v>
+        <v>108.7624282599258</v>
       </c>
       <c r="W15" t="n">
-        <v>83.54654889215952</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="X15" t="n">
-        <v>83.54654889215952</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="Y15" t="n">
-        <v>83.54654889215952</v>
+        <v>44.11061880636036</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="C16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="D16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="E16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="F16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="G16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="H16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="I16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="J16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="K16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="L16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="M16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="N16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="O16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="P16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="R16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="S16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="T16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="U16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="V16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="W16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="X16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722385</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C17" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="D17" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E17" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F17" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="G17" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="H17" t="n">
         <v>7.413195943128176</v>
@@ -5518,10 +5518,10 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K17" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940375</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M17" t="n">
         <v>166.9070065056148</v>
@@ -5542,25 +5542,25 @@
         <v>370.6597971564088</v>
       </c>
       <c r="S17" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="T17" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="U17" t="n">
-        <v>277.0588382785278</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V17" t="n">
-        <v>183.4578794006468</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="W17" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X17" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y17" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>191.6351227100635</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C18" t="n">
-        <v>191.6351227100635</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D18" t="n">
-        <v>191.6351227100635</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E18" t="n">
-        <v>191.6351227100635</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F18" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G18" t="n">
         <v>7.413195943128176</v>
@@ -5597,49 +5597,49 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K18" t="n">
-        <v>7.413195943128176</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L18" t="n">
-        <v>43.08143125983008</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8197310560413</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5580308522524</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O18" t="n">
-        <v>317.2247932514005</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P18" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q18" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R18" t="n">
-        <v>285.2360815879445</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="S18" t="n">
-        <v>285.2360815879445</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="T18" t="n">
-        <v>285.2360815879445</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="U18" t="n">
-        <v>285.2360815879445</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V18" t="n">
-        <v>285.2360815879445</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W18" t="n">
-        <v>285.2360815879445</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X18" t="n">
-        <v>285.2360815879445</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y18" t="n">
-        <v>191.6351227100635</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="19">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.5653832549667</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C20" t="n">
-        <v>65.96442437708571</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D20" t="n">
         <v>7.413195943128176</v>
@@ -5755,10 +5755,10 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K20" t="n">
-        <v>21.18357364821451</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L20" t="n">
-        <v>75.16870670940366</v>
+        <v>75.16870670940375</v>
       </c>
       <c r="M20" t="n">
         <v>166.9070065056148</v>
@@ -5773,31 +5773,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q20" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R20" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S20" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T20" t="n">
-        <v>253.1663421328477</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U20" t="n">
-        <v>159.5653832549667</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V20" t="n">
-        <v>159.5653832549667</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W20" t="n">
-        <v>159.5653832549667</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X20" t="n">
-        <v>159.5653832549667</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.5653832549667</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>177.1475077700405</v>
+      </c>
+      <c r="C21" t="n">
+        <v>177.1475077700405</v>
+      </c>
+      <c r="D21" t="n">
+        <v>177.1475077700405</v>
+      </c>
+      <c r="E21" t="n">
+        <v>177.1475077700405</v>
+      </c>
+      <c r="F21" t="n">
         <v>101.0141548210092</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7.413195943128176</v>
       </c>
       <c r="G21" t="n">
         <v>7.413195943128176</v>
@@ -5846,7 +5846,7 @@
         <v>286.1748768573191</v>
       </c>
       <c r="O21" t="n">
-        <v>317.2247932514005</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P21" t="n">
         <v>370.6597971564088</v>
@@ -5855,28 +5855,28 @@
         <v>356.1721822163859</v>
       </c>
       <c r="R21" t="n">
-        <v>356.1721822163859</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="S21" t="n">
-        <v>356.1721822163859</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="T21" t="n">
-        <v>356.1721822163859</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="U21" t="n">
-        <v>356.1721822163859</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="V21" t="n">
-        <v>356.1721822163859</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="W21" t="n">
-        <v>288.2160725767712</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="X21" t="n">
-        <v>194.6151136988902</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="Y21" t="n">
-        <v>194.6151136988902</v>
+        <v>177.1475077700405</v>
       </c>
     </row>
     <row r="22">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>204.4141124136066</v>
+        <v>78.781047341546</v>
       </c>
       <c r="C23" t="n">
-        <v>106.100283819144</v>
+        <v>78.781047341546</v>
       </c>
       <c r="D23" t="n">
-        <v>7.786455224681434</v>
+        <v>78.781047341546</v>
       </c>
       <c r="E23" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F23" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G23" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H23" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I23" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J23" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K23" t="n">
-        <v>23.80676326264273</v>
+        <v>26.37736235377253</v>
       </c>
       <c r="L23" t="n">
-        <v>80.5831338542128</v>
+        <v>85.88901087540833</v>
       </c>
       <c r="M23" t="n">
-        <v>175.4272232168672</v>
+        <v>183.7766239668948</v>
       </c>
       <c r="N23" t="n">
-        <v>271.7846066222999</v>
+        <v>284.6604861531245</v>
       </c>
       <c r="O23" t="n">
-        <v>353.8137694399323</v>
+        <v>369.6100650431196</v>
       </c>
       <c r="P23" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q23" t="n">
-        <v>389.3227612340717</v>
+        <v>387.577687030036</v>
       </c>
       <c r="R23" t="n">
-        <v>389.3227612340717</v>
+        <v>387.577687030036</v>
       </c>
       <c r="S23" t="n">
-        <v>291.0089326396092</v>
+        <v>387.577687030036</v>
       </c>
       <c r="T23" t="n">
-        <v>291.0089326396092</v>
+        <v>284.6454738005393</v>
       </c>
       <c r="U23" t="n">
-        <v>291.0089326396092</v>
+        <v>284.6454738005393</v>
       </c>
       <c r="V23" t="n">
-        <v>291.0089326396092</v>
+        <v>284.6454738005393</v>
       </c>
       <c r="W23" t="n">
-        <v>291.0089326396092</v>
+        <v>284.6454738005393</v>
       </c>
       <c r="X23" t="n">
-        <v>291.0089326396092</v>
+        <v>181.7132605710427</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.0089326396092</v>
+        <v>78.781047341546</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C24" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D24" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E24" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F24" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G24" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H24" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I24" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J24" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K24" t="n">
-        <v>30.19753787044269</v>
+        <v>32.06085742250692</v>
       </c>
       <c r="L24" t="n">
-        <v>106.654545342201</v>
+        <v>110.5314969235299</v>
       </c>
       <c r="M24" t="n">
-        <v>203.0119287476338</v>
+        <v>211.4153591097595</v>
       </c>
       <c r="N24" t="n">
-        <v>299.3693121530665</v>
+        <v>312.2992212959892</v>
       </c>
       <c r="O24" t="n">
-        <v>389.3227612340717</v>
+        <v>407.4241544567132</v>
       </c>
       <c r="P24" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q24" t="n">
-        <v>376.0677080061803</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R24" t="n">
-        <v>376.0677080061803</v>
+        <v>323.3748499669449</v>
       </c>
       <c r="S24" t="n">
-        <v>376.0677080061803</v>
+        <v>323.3748499669449</v>
       </c>
       <c r="T24" t="n">
-        <v>277.7538794117178</v>
+        <v>323.3748499669449</v>
       </c>
       <c r="U24" t="n">
-        <v>179.4400508172552</v>
+        <v>220.4426367374482</v>
       </c>
       <c r="V24" t="n">
-        <v>106.100283819144</v>
+        <v>117.5104235079515</v>
       </c>
       <c r="W24" t="n">
-        <v>106.100283819144</v>
+        <v>14.57821027845486</v>
       </c>
       <c r="X24" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="Y24" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="C25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="D25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="E25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="L25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="M25" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="N25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="O25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="P25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="R25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="S25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="T25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="U25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="V25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="W25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="X25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.100283819144</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="C26" t="n">
-        <v>106.100283819144</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="D26" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E26" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F26" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G26" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H26" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I26" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J26" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K26" t="n">
-        <v>23.80676326264279</v>
+        <v>26.37736235377234</v>
       </c>
       <c r="L26" t="n">
-        <v>80.58313385421275</v>
+        <v>85.88901087540818</v>
       </c>
       <c r="M26" t="n">
-        <v>175.4272232168672</v>
+        <v>183.7766239668948</v>
       </c>
       <c r="N26" t="n">
-        <v>271.7846066223</v>
+        <v>284.6604861531245</v>
       </c>
       <c r="O26" t="n">
-        <v>353.8137694399323</v>
+        <v>369.6100650431196</v>
       </c>
       <c r="P26" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.379110007136</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R26" t="n">
-        <v>367.379110007136</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="S26" t="n">
-        <v>367.379110007136</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="T26" t="n">
-        <v>367.379110007136</v>
+        <v>304.6793511593101</v>
       </c>
       <c r="U26" t="n">
-        <v>269.0652814126735</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="V26" t="n">
-        <v>204.4141124136066</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="W26" t="n">
-        <v>106.100283819144</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="X26" t="n">
-        <v>106.100283819144</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="Y26" t="n">
-        <v>106.100283819144</v>
+        <v>201.7471379298134</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J27" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K27" t="n">
-        <v>30.19753787044269</v>
+        <v>32.06085742250692</v>
       </c>
       <c r="L27" t="n">
-        <v>106.654545342201</v>
+        <v>110.5314969235299</v>
       </c>
       <c r="M27" t="n">
-        <v>203.0119287476338</v>
+        <v>211.4153591097595</v>
       </c>
       <c r="N27" t="n">
-        <v>299.3693121530665</v>
+        <v>312.2992212959892</v>
       </c>
       <c r="O27" t="n">
-        <v>389.3227612340717</v>
+        <v>407.4241544567132</v>
       </c>
       <c r="P27" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q27" t="n">
-        <v>389.3227612340717</v>
+        <v>401.185585398128</v>
       </c>
       <c r="R27" t="n">
-        <v>389.3227612340717</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="S27" t="n">
-        <v>291.0089326396092</v>
+        <v>214.0166577467695</v>
       </c>
       <c r="T27" t="n">
-        <v>192.6951040451466</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="U27" t="n">
-        <v>94.38127545068403</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="V27" t="n">
-        <v>94.38127545068403</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="W27" t="n">
-        <v>94.38127545068403</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="X27" t="n">
-        <v>94.38127545068403</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.786455224681434</v>
+        <v>111.0844445172728</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="C28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="D28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="E28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="F28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="G28" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H28" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I28" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J28" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K28" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="L28" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="M28" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="N28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="O28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="P28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="R28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="S28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="T28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="U28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="V28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="W28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="X28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>204.4141124136066</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C29" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D29" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E29" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F29" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G29" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H29" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I29" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J29" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K29" t="n">
-        <v>23.80676326264283</v>
+        <v>26.37736235377237</v>
       </c>
       <c r="L29" t="n">
-        <v>80.58313385421285</v>
+        <v>85.88901087540818</v>
       </c>
       <c r="M29" t="n">
-        <v>175.4272232168672</v>
+        <v>183.7766239668946</v>
       </c>
       <c r="N29" t="n">
-        <v>271.7846066222999</v>
+        <v>284.6604861531243</v>
       </c>
       <c r="O29" t="n">
-        <v>353.8137694399323</v>
+        <v>369.6100650431194</v>
       </c>
       <c r="P29" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888066</v>
       </c>
       <c r="Q29" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888066</v>
       </c>
       <c r="R29" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888066</v>
       </c>
       <c r="S29" t="n">
-        <v>389.3227612340717</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="T29" t="n">
-        <v>389.3227612340717</v>
+        <v>214.0166577467695</v>
       </c>
       <c r="U29" t="n">
-        <v>389.3227612340717</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="V29" t="n">
-        <v>389.3227612340717</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="W29" t="n">
-        <v>389.3227612340717</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="X29" t="n">
-        <v>302.7279410080691</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="Y29" t="n">
-        <v>302.7279410080691</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C30" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D30" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E30" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F30" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G30" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H30" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I30" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J30" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K30" t="n">
-        <v>30.19753787044269</v>
+        <v>32.06085742250692</v>
       </c>
       <c r="L30" t="n">
-        <v>106.654545342201</v>
+        <v>110.5314969235299</v>
       </c>
       <c r="M30" t="n">
-        <v>203.0119287476338</v>
+        <v>154.589690061403</v>
       </c>
       <c r="N30" t="n">
-        <v>299.3693121530665</v>
+        <v>255.4735522476327</v>
       </c>
       <c r="O30" t="n">
-        <v>389.3227612340717</v>
+        <v>350.5984854083566</v>
       </c>
       <c r="P30" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q30" t="n">
-        <v>376.0677080061803</v>
+        <v>395.5643620915302</v>
       </c>
       <c r="R30" t="n">
-        <v>376.0677080061803</v>
+        <v>395.5643620915302</v>
       </c>
       <c r="S30" t="n">
-        <v>376.0677080061803</v>
+        <v>395.5643620915302</v>
       </c>
       <c r="T30" t="n">
-        <v>376.0677080061803</v>
+        <v>395.5643620915302</v>
       </c>
       <c r="U30" t="n">
-        <v>376.0677080061803</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="V30" t="n">
-        <v>376.0677080061803</v>
+        <v>214.0166577467695</v>
       </c>
       <c r="W30" t="n">
-        <v>302.7279410080691</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4141124136066</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="Y30" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="L31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="M31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="N31" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="O31" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="P31" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="R31" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="S31" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="T31" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="U31" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="V31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="W31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="X31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.38127545068397</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C32" t="n">
-        <v>94.38127545068397</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D32" t="n">
-        <v>94.38127545068397</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E32" t="n">
-        <v>94.38127545068397</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F32" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G32" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H32" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I32" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J32" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K32" t="n">
-        <v>23.80676326264279</v>
+        <v>26.37736235377253</v>
       </c>
       <c r="L32" t="n">
-        <v>80.58313385421278</v>
+        <v>85.88901087540833</v>
       </c>
       <c r="M32" t="n">
-        <v>175.4272232168672</v>
+        <v>183.7766239668948</v>
       </c>
       <c r="N32" t="n">
-        <v>271.7846066222999</v>
+        <v>284.6604861531245</v>
       </c>
       <c r="O32" t="n">
-        <v>353.8137694399323</v>
+        <v>369.6100650431196</v>
       </c>
       <c r="P32" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q32" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R32" t="n">
-        <v>291.0089326396091</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="S32" t="n">
-        <v>291.0089326396091</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="T32" t="n">
-        <v>291.0089326396091</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="U32" t="n">
-        <v>192.6951040451465</v>
+        <v>304.6793511593101</v>
       </c>
       <c r="V32" t="n">
-        <v>192.6951040451465</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="W32" t="n">
-        <v>192.6951040451465</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="X32" t="n">
-        <v>94.38127545068397</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.38127545068397</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>204.4141124136066</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C33" t="n">
-        <v>204.4141124136066</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D33" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E33" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F33" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G33" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H33" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I33" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J33" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K33" t="n">
-        <v>30.19753787044269</v>
+        <v>32.06085742250692</v>
       </c>
       <c r="L33" t="n">
-        <v>106.654545342201</v>
+        <v>110.5314969235299</v>
       </c>
       <c r="M33" t="n">
-        <v>203.0119287476338</v>
+        <v>154.589690061403</v>
       </c>
       <c r="N33" t="n">
-        <v>296.4043425000021</v>
+        <v>255.4735522476327</v>
       </c>
       <c r="O33" t="n">
-        <v>389.3227612340717</v>
+        <v>350.5984854083566</v>
       </c>
       <c r="P33" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q33" t="n">
-        <v>376.0677080061803</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R33" t="n">
-        <v>291.2435025942901</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="S33" t="n">
-        <v>291.2435025942901</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="T33" t="n">
-        <v>204.4141124136066</v>
+        <v>304.6793511593101</v>
       </c>
       <c r="U33" t="n">
-        <v>204.4141124136066</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="V33" t="n">
-        <v>204.4141124136066</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="W33" t="n">
-        <v>204.4141124136066</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4141124136066</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="Y33" t="n">
-        <v>204.4141124136066</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="C34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="D34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="L34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="M34" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="N34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="O34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="P34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="R34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="S34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="T34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="U34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="V34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="W34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="X34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J35" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K35" t="n">
-        <v>23.80676326264283</v>
+        <v>26.37736235377234</v>
       </c>
       <c r="L35" t="n">
-        <v>80.58313385421285</v>
+        <v>85.88901087540818</v>
       </c>
       <c r="M35" t="n">
-        <v>175.4272232168672</v>
+        <v>183.7766239668948</v>
       </c>
       <c r="N35" t="n">
-        <v>271.7846066222999</v>
+        <v>284.6604861531245</v>
       </c>
       <c r="O35" t="n">
-        <v>353.8137694399323</v>
+        <v>369.6100650431196</v>
       </c>
       <c r="P35" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.379110007136</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0652814126735</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="S35" t="n">
-        <v>269.0652814126735</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="T35" t="n">
-        <v>170.7514528182109</v>
+        <v>304.6793511593101</v>
       </c>
       <c r="U35" t="n">
-        <v>170.7514528182109</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="V35" t="n">
-        <v>72.43762422374834</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="W35" t="n">
-        <v>31.4217169422359</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="X35" t="n">
-        <v>31.4217169422359</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>106.100283819144</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="C36" t="n">
-        <v>106.100283819144</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="D36" t="n">
-        <v>106.100283819144</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="E36" t="n">
-        <v>106.100283819144</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="F36" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G36" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H36" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I36" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J36" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K36" t="n">
-        <v>30.19753787044269</v>
+        <v>32.06085742250692</v>
       </c>
       <c r="L36" t="n">
-        <v>106.654545342201</v>
+        <v>110.5314969235299</v>
       </c>
       <c r="M36" t="n">
-        <v>203.0119287476338</v>
+        <v>211.4153591097595</v>
       </c>
       <c r="N36" t="n">
-        <v>241.1621858766901</v>
+        <v>312.2992212959892</v>
       </c>
       <c r="O36" t="n">
-        <v>334.0806046107597</v>
+        <v>350.5984854083566</v>
       </c>
       <c r="P36" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q36" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R36" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="S36" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="T36" t="n">
-        <v>302.7279410080691</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="U36" t="n">
-        <v>302.7279410080691</v>
+        <v>304.6793511593101</v>
       </c>
       <c r="V36" t="n">
-        <v>204.4141124136066</v>
+        <v>201.7471379298134</v>
       </c>
       <c r="W36" t="n">
-        <v>106.100283819144</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="X36" t="n">
-        <v>106.100283819144</v>
+        <v>98.81492470031678</v>
       </c>
       <c r="Y36" t="n">
-        <v>106.100283819144</v>
+        <v>98.81492470031678</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="L37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="M37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="N37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="O37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="P37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="R37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="S37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="T37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="U37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="V37" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="W37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="X37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.4217169422359</v>
+        <v>387.577687030036</v>
       </c>
       <c r="C38" t="n">
-        <v>31.4217169422359</v>
+        <v>387.577687030036</v>
       </c>
       <c r="D38" t="n">
-        <v>31.4217169422359</v>
+        <v>284.6454738005393</v>
       </c>
       <c r="E38" t="n">
-        <v>31.4217169422359</v>
+        <v>284.6454738005393</v>
       </c>
       <c r="F38" t="n">
-        <v>31.4217169422359</v>
+        <v>284.6454738005393</v>
       </c>
       <c r="G38" t="n">
-        <v>31.4217169422359</v>
+        <v>181.7132605710427</v>
       </c>
       <c r="H38" t="n">
-        <v>31.4217169422359</v>
+        <v>78.781047341546</v>
       </c>
       <c r="I38" t="n">
-        <v>31.4217169422359</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J38" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K38" t="n">
-        <v>23.80676326264273</v>
+        <v>26.37736235377241</v>
       </c>
       <c r="L38" t="n">
-        <v>80.5831338542128</v>
+        <v>85.88901087540836</v>
       </c>
       <c r="M38" t="n">
-        <v>175.4272232168672</v>
+        <v>183.7766239668948</v>
       </c>
       <c r="N38" t="n">
-        <v>271.7846066222999</v>
+        <v>284.6604861531245</v>
       </c>
       <c r="O38" t="n">
-        <v>353.8137694399323</v>
+        <v>369.6100650431196</v>
       </c>
       <c r="P38" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q38" t="n">
-        <v>389.3227612340717</v>
+        <v>387.577687030036</v>
       </c>
       <c r="R38" t="n">
-        <v>389.3227612340717</v>
+        <v>387.577687030036</v>
       </c>
       <c r="S38" t="n">
-        <v>389.3227612340717</v>
+        <v>387.577687030036</v>
       </c>
       <c r="T38" t="n">
-        <v>291.0089326396092</v>
+        <v>387.577687030036</v>
       </c>
       <c r="U38" t="n">
-        <v>192.6951040451466</v>
+        <v>387.577687030036</v>
       </c>
       <c r="V38" t="n">
-        <v>192.6951040451466</v>
+        <v>387.577687030036</v>
       </c>
       <c r="W38" t="n">
-        <v>94.38127545068403</v>
+        <v>387.577687030036</v>
       </c>
       <c r="X38" t="n">
-        <v>94.38127545068403</v>
+        <v>387.577687030036</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.4217169422359</v>
+        <v>387.577687030036</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.786455224681434</v>
+        <v>214.0166577467695</v>
       </c>
       <c r="C39" t="n">
-        <v>7.786455224681434</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="D39" t="n">
-        <v>7.786455224681434</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="E39" t="n">
-        <v>7.786455224681434</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="F39" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G39" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H39" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I39" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J39" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K39" t="n">
-        <v>30.19753787044269</v>
+        <v>32.06085742250692</v>
       </c>
       <c r="L39" t="n">
-        <v>106.654545342201</v>
+        <v>110.5314969235299</v>
       </c>
       <c r="M39" t="n">
-        <v>203.0119287476338</v>
+        <v>211.4153591097595</v>
       </c>
       <c r="N39" t="n">
-        <v>241.1621858766901</v>
+        <v>255.4735522476327</v>
       </c>
       <c r="O39" t="n">
-        <v>334.0806046107597</v>
+        <v>350.5984854083566</v>
       </c>
       <c r="P39" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q39" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R39" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="S39" t="n">
-        <v>291.0089326396092</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="T39" t="n">
-        <v>192.6951040451466</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="U39" t="n">
-        <v>192.6951040451466</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="V39" t="n">
-        <v>192.6951040451466</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="W39" t="n">
-        <v>94.38127545068403</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="X39" t="n">
-        <v>94.38127545068403</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.786455224681434</v>
+        <v>316.9488709762661</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="C40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="D40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="E40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="F40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="G40" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H40" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I40" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J40" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K40" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="L40" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="M40" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="N40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="O40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="P40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="R40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="S40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="T40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="U40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="V40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="W40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="X40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>106.100283819144</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="C41" t="n">
-        <v>106.100283819144</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="D41" t="n">
-        <v>106.100283819144</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="E41" t="n">
-        <v>106.100283819144</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="F41" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G41" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H41" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I41" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J41" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K41" t="n">
-        <v>23.80676326264283</v>
+        <v>26.37736235377234</v>
       </c>
       <c r="L41" t="n">
-        <v>80.58313385421285</v>
+        <v>85.88901087540818</v>
       </c>
       <c r="M41" t="n">
-        <v>175.4272232168672</v>
+        <v>183.7766239668948</v>
       </c>
       <c r="N41" t="n">
-        <v>271.7846066222999</v>
+        <v>284.6604861531245</v>
       </c>
       <c r="O41" t="n">
-        <v>353.8137694399323</v>
+        <v>369.6100650431196</v>
       </c>
       <c r="P41" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.379110007136</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R41" t="n">
-        <v>302.7279410080691</v>
+        <v>308.8145963338761</v>
       </c>
       <c r="S41" t="n">
-        <v>302.7279410080691</v>
+        <v>214.0166577467695</v>
       </c>
       <c r="T41" t="n">
-        <v>302.7279410080691</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="U41" t="n">
-        <v>302.7279410080691</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="V41" t="n">
-        <v>302.7279410080691</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="W41" t="n">
-        <v>204.4141124136066</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="X41" t="n">
-        <v>204.4141124136066</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="Y41" t="n">
-        <v>204.4141124136066</v>
+        <v>111.0844445172728</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.786455224681434</v>
+        <v>105.463221210675</v>
       </c>
       <c r="C42" t="n">
-        <v>7.786455224681434</v>
+        <v>105.463221210675</v>
       </c>
       <c r="D42" t="n">
-        <v>7.786455224681434</v>
+        <v>105.463221210675</v>
       </c>
       <c r="E42" t="n">
-        <v>7.786455224681434</v>
+        <v>105.463221210675</v>
       </c>
       <c r="F42" t="n">
-        <v>7.786455224681434</v>
+        <v>105.463221210675</v>
       </c>
       <c r="G42" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H42" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I42" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J42" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K42" t="n">
-        <v>30.19753787044269</v>
+        <v>32.06085742250692</v>
       </c>
       <c r="L42" t="n">
-        <v>106.654545342201</v>
+        <v>110.5314969235299</v>
       </c>
       <c r="M42" t="n">
-        <v>200.0469590945693</v>
+        <v>154.589690061403</v>
       </c>
       <c r="N42" t="n">
-        <v>296.4043425000021</v>
+        <v>255.4735522476327</v>
       </c>
       <c r="O42" t="n">
-        <v>389.3227612340717</v>
+        <v>350.5984854083566</v>
       </c>
       <c r="P42" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q42" t="n">
-        <v>376.0677080061803</v>
+        <v>395.5643620915302</v>
       </c>
       <c r="R42" t="n">
-        <v>376.0677080061803</v>
+        <v>311.3276476696683</v>
       </c>
       <c r="S42" t="n">
-        <v>277.7538794117178</v>
+        <v>311.3276476696683</v>
       </c>
       <c r="T42" t="n">
-        <v>179.4400508172552</v>
+        <v>311.3276476696683</v>
       </c>
       <c r="U42" t="n">
-        <v>81.12622222279265</v>
+        <v>311.3276476696683</v>
       </c>
       <c r="V42" t="n">
-        <v>7.786455224681434</v>
+        <v>208.3954344401716</v>
       </c>
       <c r="W42" t="n">
-        <v>7.786455224681434</v>
+        <v>105.463221210675</v>
       </c>
       <c r="X42" t="n">
-        <v>7.786455224681434</v>
+        <v>105.463221210675</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.786455224681434</v>
+        <v>105.463221210675</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="C43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="D43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="E43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="F43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="G43" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H43" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I43" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J43" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K43" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="L43" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="M43" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="N43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="O43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="P43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="R43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="S43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="T43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="U43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="V43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="W43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="X43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.7279410080691</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C44" t="n">
-        <v>204.4141124136066</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D44" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E44" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F44" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G44" t="n">
-        <v>106.100283819144</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H44" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I44" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J44" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K44" t="n">
-        <v>23.80676326264285</v>
+        <v>26.37736235377234</v>
       </c>
       <c r="L44" t="n">
-        <v>80.58313385421283</v>
+        <v>85.88901087540818</v>
       </c>
       <c r="M44" t="n">
-        <v>175.4272232168672</v>
+        <v>183.7766239668948</v>
       </c>
       <c r="N44" t="n">
-        <v>271.7846066222999</v>
+        <v>284.6604861531245</v>
       </c>
       <c r="O44" t="n">
-        <v>353.8137694399323</v>
+        <v>369.6100650431196</v>
       </c>
       <c r="P44" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q44" t="n">
-        <v>389.3227612340717</v>
+        <v>387.577687030036</v>
       </c>
       <c r="R44" t="n">
-        <v>389.3227612340717</v>
+        <v>288.7807189751053</v>
       </c>
       <c r="S44" t="n">
-        <v>302.7279410080691</v>
+        <v>185.8485057456086</v>
       </c>
       <c r="T44" t="n">
-        <v>302.7279410080691</v>
+        <v>185.8485057456086</v>
       </c>
       <c r="U44" t="n">
-        <v>302.7279410080691</v>
+        <v>185.8485057456086</v>
       </c>
       <c r="V44" t="n">
-        <v>302.7279410080691</v>
+        <v>82.91629251611197</v>
       </c>
       <c r="W44" t="n">
-        <v>302.7279410080691</v>
+        <v>82.91629251611197</v>
       </c>
       <c r="X44" t="n">
-        <v>302.7279410080691</v>
+        <v>82.91629251611197</v>
       </c>
       <c r="Y44" t="n">
-        <v>302.7279410080691</v>
+        <v>82.91629251611197</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>376.0677080061803</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="C45" t="n">
-        <v>376.0677080061803</v>
+        <v>111.0844445172728</v>
       </c>
       <c r="D45" t="n">
-        <v>376.0677080061803</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E45" t="n">
-        <v>376.0677080061803</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F45" t="n">
-        <v>277.7538794117178</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G45" t="n">
-        <v>179.4400508172552</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H45" t="n">
-        <v>81.12622222279265</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I45" t="n">
-        <v>15.16097369902802</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J45" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K45" t="n">
-        <v>30.19753787044269</v>
+        <v>32.06085742250692</v>
       </c>
       <c r="L45" t="n">
-        <v>106.654545342201</v>
+        <v>110.5314969235299</v>
       </c>
       <c r="M45" t="n">
-        <v>203.0119287476338</v>
+        <v>211.4153591097595</v>
       </c>
       <c r="N45" t="n">
-        <v>296.4043425000021</v>
+        <v>255.4735522476327</v>
       </c>
       <c r="O45" t="n">
-        <v>389.3227612340717</v>
+        <v>350.5984854083566</v>
       </c>
       <c r="P45" t="n">
-        <v>389.3227612340717</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="Q45" t="n">
-        <v>376.0677080061803</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="R45" t="n">
-        <v>376.0677080061803</v>
+        <v>407.6115643888068</v>
       </c>
       <c r="S45" t="n">
-        <v>376.0677080061803</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="T45" t="n">
-        <v>376.0677080061803</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="U45" t="n">
-        <v>376.0677080061803</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="V45" t="n">
-        <v>376.0677080061803</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="W45" t="n">
-        <v>376.0677080061803</v>
+        <v>316.9488709762661</v>
       </c>
       <c r="X45" t="n">
-        <v>376.0677080061803</v>
+        <v>214.0166577467695</v>
       </c>
       <c r="Y45" t="n">
-        <v>376.0677080061803</v>
+        <v>111.0844445172728</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="C46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="D46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="E46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="F46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="G46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="H46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="I46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="J46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="K46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="L46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="M46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="N46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="O46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="P46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="R46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="S46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="T46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="U46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="V46" t="n">
-        <v>7.786455224681434</v>
+        <v>9.157426549637908</v>
       </c>
       <c r="W46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="X46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.786455224681434</v>
+        <v>8.152231287776136</v>
       </c>
     </row>
   </sheetData>
@@ -22807,13 +22807,13 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L5" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M5" t="n">
         <v>4.586202945486093</v>
@@ -22822,13 +22822,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R5" t="n">
         <v>134.8218408634681</v>
@@ -22889,7 +22889,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22904,10 +22904,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R6" t="n">
         <v>102.9682853879423</v>
@@ -22968,16 +22968,16 @@
         <v>86.2208375662932</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O7" t="n">
         <v>56.93882853040725</v>
@@ -23044,13 +23044,13 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L8" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M8" t="n">
         <v>4.586202945486093</v>
@@ -23059,13 +23059,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P8" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R8" t="n">
         <v>134.8218408634681</v>
@@ -23126,7 +23126,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K9" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23141,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R9" t="n">
         <v>102.9682853879423</v>
@@ -23205,16 +23205,16 @@
         <v>86.2208375662932</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L10" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M10" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O10" t="n">
         <v>56.93882853040725</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>317.925078713232</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>350.500185112678</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5571995917977</v>
+        <v>349.5519082327678</v>
       </c>
       <c r="H11" t="n">
-        <v>321.5983118583879</v>
+        <v>257.5930204993581</v>
       </c>
       <c r="I11" t="n">
-        <v>79.17574742191047</v>
+        <v>143.1810387809403</v>
       </c>
       <c r="J11" t="n">
         <v>32.89555520582749</v>
@@ -23314,13 +23314,13 @@
         <v>215.4547573047218</v>
       </c>
       <c r="U11" t="n">
-        <v>187.2007185149397</v>
+        <v>251.2060098739695</v>
       </c>
       <c r="V11" t="n">
-        <v>271.3763978411015</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>285.2356773583832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>137.0971364023604</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>81.06392103435405</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>72.40428067850078</v>
+        <v>136.4095720375306</v>
       </c>
       <c r="H12" t="n">
-        <v>103.2155005226921</v>
+        <v>39.2102091636623</v>
       </c>
       <c r="I12" t="n">
-        <v>67.3668131728592</v>
+        <v>31.75545058690386</v>
       </c>
       <c r="J12" t="n">
         <v>38.60029354266159</v>
@@ -23390,7 +23390,7 @@
         <v>154.3355500193867</v>
       </c>
       <c r="T12" t="n">
-        <v>196.4002744382429</v>
+        <v>132.3949830792131</v>
       </c>
       <c r="U12" t="n">
         <v>225.8799383227064</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>301.2676004119778</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>331.8438870907846</v>
+        <v>413.5571995917977</v>
       </c>
       <c r="H14" t="n">
-        <v>320.6353766150897</v>
+        <v>321.5983118583879</v>
       </c>
       <c r="I14" t="n">
-        <v>139.5561335235496</v>
+        <v>79.17574742191049</v>
       </c>
       <c r="J14" t="n">
-        <v>24.91528667358037</v>
+        <v>10.32692603244048</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.65357118422327</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.366133540830887</v>
+        <v>105.9373912372883</v>
       </c>
       <c r="S14" t="n">
-        <v>167.1010256612668</v>
+        <v>169.243624158194</v>
       </c>
       <c r="T14" t="n">
-        <v>215.0431621354273</v>
+        <v>215.4547573047218</v>
       </c>
       <c r="U14" t="n">
-        <v>158.5335385714936</v>
+        <v>187.2007185149397</v>
       </c>
       <c r="V14" t="n">
-        <v>235.0873091810327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23588,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>60.98724471840328</v>
+        <v>136.4095720375306</v>
       </c>
       <c r="H15" t="n">
-        <v>102.729632124056</v>
+        <v>103.2155005226921</v>
       </c>
       <c r="I15" t="n">
-        <v>65.63472101605001</v>
+        <v>67.3668131728592</v>
       </c>
       <c r="J15" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,25 +23618,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.988930956706238</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.68768980174875</v>
       </c>
       <c r="S15" t="n">
-        <v>60.73615356033713</v>
+        <v>90.3302586603569</v>
       </c>
       <c r="T15" t="n">
-        <v>196.197498299121</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8799383227064</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>159.0300338718174</v>
+        <v>187.6896918018898</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1658146852775</v>
+        <v>167.2079911383388</v>
       </c>
       <c r="H16" t="n">
-        <v>154.8907084131551</v>
+        <v>155.2656954230999</v>
       </c>
       <c r="I16" t="n">
-        <v>130.6355227555885</v>
+        <v>131.9038837258314</v>
       </c>
       <c r="J16" t="n">
-        <v>68.65627904547949</v>
+        <v>71.63815427691216</v>
       </c>
       <c r="K16" t="n">
-        <v>33.14412614092829</v>
+        <v>38.04426314204819</v>
       </c>
       <c r="L16" t="n">
-        <v>12.2051938702684</v>
+        <v>18.47568217357946</v>
       </c>
       <c r="M16" t="n">
-        <v>9.57747067792468</v>
+        <v>16.18882140643099</v>
       </c>
       <c r="N16" t="n">
-        <v>1.412844977410217</v>
+        <v>7.866992562688111</v>
       </c>
       <c r="O16" t="n">
-        <v>21.82326264618301</v>
+        <v>27.78471257524502</v>
       </c>
       <c r="P16" t="n">
-        <v>37.92808757638608</v>
+        <v>43.02913786299791</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.40871249605686</v>
+        <v>85.94041530648843</v>
       </c>
       <c r="R16" t="n">
-        <v>140.1909870721275</v>
+        <v>142.087393770683</v>
       </c>
       <c r="S16" t="n">
-        <v>209.6362282325312</v>
+        <v>210.3712487826992</v>
       </c>
       <c r="T16" t="n">
-        <v>224.4198858246887</v>
+        <v>224.6000943059506</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2763209081207</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>314.2110964526092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.4631744246258</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6353766150897</v>
+        <v>239.0160892812485</v>
       </c>
       <c r="I17" t="n">
         <v>139.5561335235496</v>
@@ -23782,19 +23782,19 @@
         <v>100.0310828299331</v>
       </c>
       <c r="S17" t="n">
-        <v>167.1010256612668</v>
+        <v>74.43607637216456</v>
       </c>
       <c r="T17" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U17" t="n">
-        <v>158.5335385714936</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V17" t="n">
         <v>235.0873091810327</v>
       </c>
       <c r="W17" t="n">
-        <v>267.6216813835718</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23822,10 +23822,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>55.35445418322016</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H18" t="n">
         <v>102.729632124056</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>196.197498299121</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8766285924705</v>
+        <v>150.5046091729294</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>113.0177464882022</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>272.6079424819054</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>296.717325471065</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R20" t="n">
         <v>100.0310828299331</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>288.1118133446278</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.86823436076514</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>80.04354969921354</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>69.69719297384285</v>
       </c>
       <c r="G21" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H21" t="n">
         <v>102.729632124056</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>153.4011028494393</v>
@@ -24110,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>184.4184346177011</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X21" t="n">
-        <v>113.1080359143753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24205,31 +24205,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.004969639738</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>267.9422014624896</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>257.352351312165</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>312.0078421790296</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H23" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I23" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J23" t="n">
-        <v>23.39890910037892</v>
+        <v>21.91293233757048</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.72421471466632</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>98.90879056957442</v>
+        <v>97.80899837438137</v>
       </c>
       <c r="S23" t="n">
-        <v>69.36320766074361</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T23" t="n">
-        <v>214.9649525261348</v>
+        <v>112.9854197902734</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1970585587697</v>
+        <v>251.1956579120324</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>267.8282095812673</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>284.3350475588519</v>
       </c>
     </row>
     <row r="24">
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>47.73852208486595</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H24" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I24" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J24" t="n">
-        <v>32.94415618079529</v>
+        <v>32.05911860082654</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,28 +24329,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>11.92673027430376</v>
       </c>
       <c r="R24" t="n">
-        <v>83.97596335777131</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T24" t="n">
-        <v>98.82827730852104</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U24" t="n">
-        <v>128.5453093827216</v>
+        <v>123.9724923012149</v>
       </c>
       <c r="V24" t="n">
-        <v>160.1942178212952</v>
+        <v>130.8976960522236</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>149.7920920637179</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>199.4112660027055</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24372,55 +24372,55 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>145.438819337326</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H25" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J25" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890754</v>
       </c>
       <c r="K25" t="n">
-        <v>32.21302240374357</v>
+        <v>31.30058572459943</v>
       </c>
       <c r="L25" t="n">
-        <v>11.01370165446882</v>
+        <v>9.846096846118002</v>
       </c>
       <c r="M25" t="n">
-        <v>8.321209195899939</v>
+        <v>7.090133635768296</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1864545855455617</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>20.69049262225907</v>
+        <v>19.58043272497166</v>
       </c>
       <c r="P25" t="n">
-        <v>36.95880712885044</v>
+        <v>36.00895911794795</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.73763295589971</v>
+        <v>81.08000742760575</v>
       </c>
       <c r="R25" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S25" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>275.5168252925923</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>252.7801505234813</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H26" t="n">
-        <v>223.1217133400003</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I26" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J26" t="n">
-        <v>23.39890910037892</v>
+        <v>21.91293233757048</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>19.83353858518305</v>
       </c>
       <c r="R26" t="n">
-        <v>98.90879056957442</v>
+        <v>97.80899837438137</v>
       </c>
       <c r="S26" t="n">
-        <v>166.6938979692615</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T26" t="n">
-        <v>214.9649525261348</v>
+        <v>112.9854197902734</v>
       </c>
       <c r="U26" t="n">
-        <v>153.8663682502518</v>
+        <v>149.2927668148307</v>
       </c>
       <c r="V26" t="n">
-        <v>263.7476011610587</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>251.9102784088951</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>64.63029255266565</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H27" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I27" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J27" t="n">
-        <v>32.94415618079529</v>
+        <v>32.05911860082654</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.12250269561248</v>
+        <v>5.565011073531809</v>
       </c>
       <c r="R27" t="n">
-        <v>83.97596335777131</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.89285276005388</v>
+        <v>51.14665196435246</v>
       </c>
       <c r="T27" t="n">
-        <v>98.82827730852104</v>
+        <v>94.2183183128835</v>
       </c>
       <c r="U27" t="n">
-        <v>128.5453093827216</v>
+        <v>225.8753833984165</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>119.9538237535618</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1578004903565</v>
+        <v>166.1548036572709</v>
       </c>
       <c r="H28" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I28" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J28" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890754</v>
       </c>
       <c r="K28" t="n">
-        <v>32.21302240374357</v>
+        <v>31.30058572459943</v>
       </c>
       <c r="L28" t="n">
-        <v>11.01370165446882</v>
+        <v>9.846096846118002</v>
       </c>
       <c r="M28" t="n">
-        <v>8.321209195899939</v>
+        <v>7.090133635768296</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1864545855455617</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>20.69049262225907</v>
+        <v>19.58043272497166</v>
       </c>
       <c r="P28" t="n">
-        <v>36.95880712885044</v>
+        <v>36.00895911794795</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.73763295589971</v>
+        <v>81.08000742760575</v>
       </c>
       <c r="R28" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S28" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T28" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>285.4031513549626</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>267.9422014624896</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>257.352351312165</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H29" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I29" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J29" t="n">
-        <v>23.39890910037892</v>
+        <v>21.91293233757048</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.72421471466632</v>
+        <v>19.83353858518305</v>
       </c>
       <c r="R29" t="n">
-        <v>98.90879056957442</v>
+        <v>97.80899837438137</v>
       </c>
       <c r="S29" t="n">
-        <v>166.6938979692615</v>
+        <v>76.5388660217527</v>
       </c>
       <c r="T29" t="n">
-        <v>214.9649525261348</v>
+        <v>112.9854197902734</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1970585587697</v>
+        <v>149.2927668148307</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>225.8493673729332</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>284.0022286547265</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>75.37780867979781</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H30" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I30" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J30" t="n">
-        <v>32.94415618079529</v>
+        <v>32.05911860082654</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.97596335777131</v>
+        <v>83.39434727764328</v>
       </c>
       <c r="S30" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T30" t="n">
-        <v>196.158967617039</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8759996912395</v>
+        <v>148.0460471943051</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>130.8976960522236</v>
       </c>
       <c r="W30" t="n">
-        <v>179.0886138327895</v>
+        <v>149.7920920637179</v>
       </c>
       <c r="X30" t="n">
-        <v>108.4422948949595</v>
+        <v>103.8700941062758</v>
       </c>
       <c r="Y30" t="n">
-        <v>108.3520054687864</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24852,52 +24852,52 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H31" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I31" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J31" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890754</v>
       </c>
       <c r="K31" t="n">
-        <v>32.21302240374357</v>
+        <v>31.30058572459943</v>
       </c>
       <c r="L31" t="n">
-        <v>11.01370165446882</v>
+        <v>9.846096846118002</v>
       </c>
       <c r="M31" t="n">
-        <v>8.321209195899939</v>
+        <v>7.090133635768296</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1864545855455617</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>20.69049262225907</v>
+        <v>19.58043272497166</v>
       </c>
       <c r="P31" t="n">
-        <v>36.95880712885044</v>
+        <v>36.00895911794795</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.73763295589971</v>
+        <v>81.08000742760575</v>
       </c>
       <c r="R31" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S31" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T31" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>251.1425000145848</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24928,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>321.1471737179689</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H32" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I32" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J32" t="n">
-        <v>23.39890910037892</v>
+        <v>21.91293233757048</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.72421471466632</v>
+        <v>19.83353858518305</v>
       </c>
       <c r="R32" t="n">
-        <v>1.578100261056491</v>
+        <v>97.80899837438137</v>
       </c>
       <c r="S32" t="n">
-        <v>166.6938979692615</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T32" t="n">
-        <v>214.9649525261348</v>
+        <v>214.8883108874751</v>
       </c>
       <c r="U32" t="n">
-        <v>153.8663682502518</v>
+        <v>149.2927668148307</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>225.8493673729332</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>247.3380776202113</v>
       </c>
       <c r="X32" t="n">
-        <v>272.4004103699511</v>
+        <v>279.9750342000538</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25001,25 +25001,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>50.11437525612082</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>47.73852208486595</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H33" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I33" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J33" t="n">
-        <v>32.94415618079529</v>
+        <v>32.05911860082654</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,28 +25040,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>11.92673027430376</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.39434727764328</v>
       </c>
       <c r="S33" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T33" t="n">
-        <v>110.1978713381622</v>
+        <v>94.2183183128835</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8759996912395</v>
+        <v>123.9724923012149</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>130.8976960522236</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>116.0169187250622</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6203297089692</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H34" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J34" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890754</v>
       </c>
       <c r="K34" t="n">
-        <v>32.21302240374357</v>
+        <v>31.30058572459943</v>
       </c>
       <c r="L34" t="n">
-        <v>11.01370165446882</v>
+        <v>9.846096846118002</v>
       </c>
       <c r="M34" t="n">
-        <v>8.321209195899939</v>
+        <v>7.090133635768296</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1864545855455617</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>20.69049262225907</v>
+        <v>19.58043272497166</v>
       </c>
       <c r="P34" t="n">
-        <v>36.95880712885044</v>
+        <v>36.00895911794795</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.73763295589971</v>
+        <v>81.08000742760575</v>
       </c>
       <c r="R34" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S34" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T34" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H35" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I35" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>21.91293233757048</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>19.83353858518305</v>
       </c>
       <c r="R35" t="n">
-        <v>1.578100261056491</v>
+        <v>97.80899837438137</v>
       </c>
       <c r="S35" t="n">
-        <v>166.6938979692615</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T35" t="n">
-        <v>117.6342622176169</v>
+        <v>112.9854197902734</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1970585587697</v>
+        <v>149.2927668148307</v>
       </c>
       <c r="V35" t="n">
-        <v>230.421568161617</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>308.6352205087157</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>279.9750342000538</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>284.3350475588519</v>
       </c>
     </row>
     <row r="36">
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>47.73852208486595</v>
+        <v>55.31314591496864</v>
       </c>
       <c r="G36" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H36" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I36" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J36" t="n">
-        <v>32.94415618079529</v>
+        <v>32.05911860082654</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.12250269561248</v>
+        <v>11.92673027430376</v>
       </c>
       <c r="R36" t="n">
-        <v>83.97596335777131</v>
+        <v>83.39434727764328</v>
       </c>
       <c r="S36" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T36" t="n">
-        <v>110.4300955932964</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8759996912395</v>
+        <v>123.9724923012149</v>
       </c>
       <c r="V36" t="n">
-        <v>135.4698968409073</v>
+        <v>130.8976960522236</v>
       </c>
       <c r="W36" t="n">
-        <v>154.3642928524017</v>
+        <v>149.7920920637179</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25326,55 +25326,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H37" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J37" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890754</v>
       </c>
       <c r="K37" t="n">
-        <v>32.21302240374357</v>
+        <v>31.30058572459943</v>
       </c>
       <c r="L37" t="n">
-        <v>11.01370165446882</v>
+        <v>9.846096846118002</v>
       </c>
       <c r="M37" t="n">
-        <v>8.321209195899939</v>
+        <v>7.090133635768296</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1864545855455617</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>20.69049262225907</v>
+        <v>19.58043272497166</v>
       </c>
       <c r="P37" t="n">
-        <v>36.95880712885044</v>
+        <v>36.00895911794795</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.73763295589971</v>
+        <v>81.08000742760575</v>
       </c>
       <c r="R37" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S37" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T37" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>285.5278550273479</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>252.7801505234813</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4453081518006</v>
+        <v>311.5249089703819</v>
       </c>
       <c r="H38" t="n">
-        <v>320.4524036485182</v>
+        <v>218.3702078838297</v>
       </c>
       <c r="I38" t="n">
-        <v>138.8673440404545</v>
+        <v>68.26983573044832</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>21.91293233757048</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.72421471466632</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>98.90879056957442</v>
+        <v>97.80899837438137</v>
       </c>
       <c r="S38" t="n">
-        <v>166.6938979692615</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T38" t="n">
-        <v>117.6342622176169</v>
+        <v>214.8883108874751</v>
       </c>
       <c r="U38" t="n">
-        <v>153.8663682502518</v>
+        <v>251.1956579120324</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>251.9102784088951</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>323.9079757326899</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>64.63029255266565</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>70.80560789111405</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>43.16632129618219</v>
       </c>
       <c r="G39" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H39" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I39" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J39" t="n">
-        <v>32.94415618079529</v>
+        <v>32.05911860082654</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,31 +25514,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.12250269561248</v>
+        <v>11.92673027430376</v>
       </c>
       <c r="R39" t="n">
-        <v>83.97596335777131</v>
+        <v>83.39434727764328</v>
       </c>
       <c r="S39" t="n">
-        <v>55.89285276005388</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T39" t="n">
-        <v>98.82827730852104</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8759996912395</v>
+        <v>225.8753833984165</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>143.04452067101</v>
       </c>
       <c r="W39" t="n">
-        <v>154.3642928524017</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>119.9538237535618</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.1578004903565</v>
+        <v>166.1548036572709</v>
       </c>
       <c r="H40" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J40" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890754</v>
       </c>
       <c r="K40" t="n">
-        <v>32.21302240374357</v>
+        <v>31.30058572459943</v>
       </c>
       <c r="L40" t="n">
-        <v>11.01370165446882</v>
+        <v>9.846096846118002</v>
       </c>
       <c r="M40" t="n">
-        <v>8.321209195899939</v>
+        <v>7.090133635768296</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1864545855455617</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>20.69049262225907</v>
+        <v>19.58043272497166</v>
       </c>
       <c r="P40" t="n">
-        <v>36.95880712885044</v>
+        <v>36.00895911794795</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.73763295589971</v>
+        <v>81.08000742760575</v>
       </c>
       <c r="R40" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S40" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T40" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.4031513549626</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>304.9731546445097</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H41" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I41" t="n">
-        <v>41.53665373193657</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J41" t="n">
-        <v>23.39890910037892</v>
+        <v>21.91293233757048</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>19.83353858518305</v>
       </c>
       <c r="R41" t="n">
-        <v>34.9041332604982</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>166.6938979692615</v>
+        <v>72.44497329893223</v>
       </c>
       <c r="T41" t="n">
-        <v>214.9649525261348</v>
+        <v>112.9854197902734</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1970585587697</v>
+        <v>251.1956579120324</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>251.9102784088951</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.3497048392341</v>
+        <v>40.00245716465517</v>
       </c>
       <c r="H42" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I42" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J42" t="n">
-        <v>32.94415618079529</v>
+        <v>32.05911860082654</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.97596335777131</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>55.89285276005388</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T42" t="n">
-        <v>98.82827730852104</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U42" t="n">
-        <v>128.5453093827216</v>
+        <v>225.8753833984165</v>
       </c>
       <c r="V42" t="n">
-        <v>160.1942178212952</v>
+        <v>130.8976960522236</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>149.7920920637179</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25800,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.1578004903565</v>
+        <v>166.1548036572709</v>
       </c>
       <c r="H43" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J43" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890754</v>
       </c>
       <c r="K43" t="n">
-        <v>32.21302240374357</v>
+        <v>31.30058572459943</v>
       </c>
       <c r="L43" t="n">
-        <v>11.01370165446882</v>
+        <v>9.846096846118002</v>
       </c>
       <c r="M43" t="n">
-        <v>8.321209195899939</v>
+        <v>7.090133635768296</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1864545855455617</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>20.69049262225907</v>
+        <v>19.58043272497166</v>
       </c>
       <c r="P43" t="n">
-        <v>36.95880712885044</v>
+        <v>36.00895911794795</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.73763295589971</v>
+        <v>81.08000742760575</v>
       </c>
       <c r="R43" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S43" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T43" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>308.7174210474281</v>
       </c>
       <c r="C44" t="n">
-        <v>267.9422014624896</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>257.352351312165</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H44" t="n">
-        <v>223.1217133400003</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I44" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J44" t="n">
-        <v>23.39890910037892</v>
+        <v>21.91293233757048</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.72421471466632</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>98.90879056957442</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.96502594551899</v>
+        <v>64.39204140296607</v>
       </c>
       <c r="T44" t="n">
-        <v>214.9649525261348</v>
+        <v>214.8883108874751</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1970585587697</v>
+        <v>251.1956579120324</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>225.8493673729332</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25949,25 +25949,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>45.54217446743706</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>47.73852208486595</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>39.01901453071618</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H45" t="n">
-        <v>5.306619114836664</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J45" t="n">
-        <v>25.64338289119217</v>
+        <v>32.05911860082654</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>11.92673027430376</v>
       </c>
       <c r="R45" t="n">
-        <v>83.97596335777131</v>
+        <v>83.39434727764328</v>
       </c>
       <c r="S45" t="n">
-        <v>153.2235430685718</v>
+        <v>63.29347658313891</v>
       </c>
       <c r="T45" t="n">
-        <v>196.158967617039</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8759996912395</v>
+        <v>225.8753833984165</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>103.8700941062758</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>103.7798046801027</v>
       </c>
     </row>
     <row r="46">
@@ -26037,55 +26037,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H46" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J46" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890754</v>
       </c>
       <c r="K46" t="n">
-        <v>32.21302240374357</v>
+        <v>31.30058572459943</v>
       </c>
       <c r="L46" t="n">
-        <v>11.01370165446882</v>
+        <v>9.846096846118002</v>
       </c>
       <c r="M46" t="n">
-        <v>8.321209195899939</v>
+        <v>7.090133635768296</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1864545855455617</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>20.69049262225907</v>
+        <v>19.58043272497166</v>
       </c>
       <c r="P46" t="n">
-        <v>36.95880712885044</v>
+        <v>36.00895911794795</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.73763295589971</v>
+        <v>81.08000742760575</v>
       </c>
       <c r="R46" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S46" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T46" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>285.5278550273479</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>383142.0922340969</v>
+        <v>358051.8747375345</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>383142.0922340969</v>
+        <v>383142.0922340968</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387392.583611345</v>
+        <v>391557.180909374</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387392.583611345</v>
+        <v>391557.180909374</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387392.5836113449</v>
+        <v>391557.180909374</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>387392.583611345</v>
+        <v>391557.180909374</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>387392.583611345</v>
+        <v>391557.180909374</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>387392.583611345</v>
+        <v>391557.1809093739</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>387392.583611345</v>
+        <v>391557.180909374</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387392.583611345</v>
+        <v>391557.1809093741</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>66735.59833537068</v>
       </c>
       <c r="C2" t="n">
-        <v>66735.59833537065</v>
+        <v>66735.5983353707</v>
       </c>
       <c r="D2" t="n">
-        <v>66735.59833537065</v>
+        <v>66735.5983353707</v>
       </c>
       <c r="E2" t="n">
-        <v>89512.96868438351</v>
+        <v>89512.96868438352</v>
       </c>
       <c r="F2" t="n">
-        <v>95785.52305852409</v>
+        <v>89512.96868438349</v>
       </c>
       <c r="G2" t="n">
         <v>95785.52305852409</v>
       </c>
       <c r="H2" t="n">
-        <v>95785.52305852412</v>
+        <v>95785.52305852408</v>
       </c>
       <c r="I2" t="n">
-        <v>96848.14590283614</v>
+        <v>97889.29522734341</v>
       </c>
       <c r="J2" t="n">
-        <v>96848.14590283616</v>
+        <v>97889.29522734342</v>
       </c>
       <c r="K2" t="n">
-        <v>96848.14590283614</v>
+        <v>97889.29522734342</v>
       </c>
       <c r="L2" t="n">
-        <v>96848.14590283614</v>
+        <v>97889.29522734342</v>
       </c>
       <c r="M2" t="n">
-        <v>96848.14590283613</v>
+        <v>97889.29522734341</v>
       </c>
       <c r="N2" t="n">
-        <v>96848.14590283617</v>
+        <v>97889.29522734342</v>
       </c>
       <c r="O2" t="n">
-        <v>96848.14590283614</v>
+        <v>97889.29522734341</v>
       </c>
       <c r="P2" t="n">
-        <v>96848.14590283616</v>
+        <v>97889.29522734342</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>111004.8835288966</v>
       </c>
       <c r="F3" t="n">
-        <v>26699.26581026787</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>26039.63944955212</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4586.112244602527</v>
+        <v>9080.280680978733</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>15950.37462783567</v>
       </c>
       <c r="N3" t="n">
-        <v>7019.524037838843</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6896.97534052985</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>46.37862202960973</v>
       </c>
       <c r="F4" t="n">
-        <v>67.14558386063669</v>
+        <v>46.37862202960972</v>
       </c>
       <c r="G4" t="n">
         <v>67.14558386063672</v>
@@ -26438,28 +26438,28 @@
         <v>67.14558386063672</v>
       </c>
       <c r="I4" t="n">
-        <v>70.52640808052365</v>
+        <v>73.87600503728848</v>
       </c>
       <c r="J4" t="n">
-        <v>70.52640808052365</v>
+        <v>73.87600503728848</v>
       </c>
       <c r="K4" t="n">
-        <v>70.52640808052365</v>
+        <v>73.87600503728848</v>
       </c>
       <c r="L4" t="n">
-        <v>70.52640808052365</v>
+        <v>73.87600503728848</v>
       </c>
       <c r="M4" t="n">
-        <v>70.52640808052365</v>
+        <v>73.87600503728848</v>
       </c>
       <c r="N4" t="n">
-        <v>70.52640808052365</v>
+        <v>73.87600503728848</v>
       </c>
       <c r="O4" t="n">
-        <v>70.52640808052365</v>
+        <v>73.87600503728848</v>
       </c>
       <c r="P4" t="n">
-        <v>70.52640808052365</v>
+        <v>73.87600503728848</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>13357.13748840697</v>
       </c>
       <c r="F5" t="n">
-        <v>15609.51966583622</v>
+        <v>13357.13748840697</v>
       </c>
       <c r="G5" t="n">
         <v>15609.51966583622</v>
@@ -26490,28 +26490,28 @@
         <v>15609.51966583622</v>
       </c>
       <c r="I5" t="n">
-        <v>15990.08105077978</v>
+        <v>16363.01282241923</v>
       </c>
       <c r="J5" t="n">
-        <v>15990.08105077978</v>
+        <v>16363.01282241923</v>
       </c>
       <c r="K5" t="n">
-        <v>15990.08105077978</v>
+        <v>16363.01282241923</v>
       </c>
       <c r="L5" t="n">
-        <v>15990.08105077978</v>
+        <v>16363.01282241923</v>
       </c>
       <c r="M5" t="n">
-        <v>15990.08105077978</v>
+        <v>16363.01282241923</v>
       </c>
       <c r="N5" t="n">
-        <v>15990.08105077978</v>
+        <v>16363.01282241923</v>
       </c>
       <c r="O5" t="n">
-        <v>15990.08105077978</v>
+        <v>16363.01282241923</v>
       </c>
       <c r="P5" t="n">
-        <v>15990.08105077978</v>
+        <v>16363.01282241923</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297807.2038425216</v>
+        <v>-283623.909627849</v>
       </c>
       <c r="C6" t="n">
-        <v>10376.67997803272</v>
+        <v>24559.97419270531</v>
       </c>
       <c r="D6" t="n">
-        <v>10376.67997803272</v>
+        <v>24559.97419270531</v>
       </c>
       <c r="E6" t="n">
-        <v>-49027.69172410078</v>
+        <v>-36308.65703186475</v>
       </c>
       <c r="F6" t="n">
-        <v>39725.37082756116</v>
+        <v>74696.22649703179</v>
       </c>
       <c r="G6" t="n">
-        <v>66424.63663782901</v>
+        <v>52700.7962421753</v>
       </c>
       <c r="H6" t="n">
-        <v>66424.63663782904</v>
+        <v>78740.4356917274</v>
       </c>
       <c r="I6" t="n">
-        <v>62593.10666011166</v>
+        <v>71018.73054587132</v>
       </c>
       <c r="J6" t="n">
-        <v>67179.2189047142</v>
+        <v>80099.01122685007</v>
       </c>
       <c r="K6" t="n">
-        <v>67179.21890471419</v>
+        <v>80099.01122685007</v>
       </c>
       <c r="L6" t="n">
-        <v>67179.21890471419</v>
+        <v>80099.01122685007</v>
       </c>
       <c r="M6" t="n">
-        <v>51228.8442768785</v>
+        <v>64148.63659901438</v>
       </c>
       <c r="N6" t="n">
-        <v>60159.69486687538</v>
+        <v>80099.01122685007</v>
       </c>
       <c r="O6" t="n">
-        <v>67179.21890471419</v>
+        <v>73202.0358863202</v>
       </c>
       <c r="P6" t="n">
-        <v>67179.2189047142</v>
+        <v>80099.01122685007</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>434.2025584301815</v>
       </c>
       <c r="F3" t="n">
-        <v>457.5913187641655</v>
+        <v>434.2025584301815</v>
       </c>
       <c r="G3" t="n">
         <v>457.5913187641655</v>
@@ -26758,28 +26758,28 @@
         <v>457.5913187641655</v>
       </c>
       <c r="I3" t="n">
-        <v>462.0355541294446</v>
+        <v>466.3906900784112</v>
       </c>
       <c r="J3" t="n">
-        <v>462.0355541294446</v>
+        <v>466.3906900784112</v>
       </c>
       <c r="K3" t="n">
-        <v>462.0355541294446</v>
+        <v>466.3906900784112</v>
       </c>
       <c r="L3" t="n">
-        <v>462.0355541294446</v>
+        <v>466.3906900784112</v>
       </c>
       <c r="M3" t="n">
-        <v>462.0355541294446</v>
+        <v>466.3906900784112</v>
       </c>
       <c r="N3" t="n">
-        <v>462.0355541294446</v>
+        <v>466.3906900784112</v>
       </c>
       <c r="O3" t="n">
-        <v>462.0355541294446</v>
+        <v>466.3906900784112</v>
       </c>
       <c r="P3" t="n">
-        <v>462.0355541294446</v>
+        <v>466.3906900784112</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>64.00529135902983</v>
       </c>
       <c r="F4" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="G4" t="n">
         <v>92.6649492891022</v>
@@ -26810,28 +26810,28 @@
         <v>92.6649492891022</v>
       </c>
       <c r="I4" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="J4" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="K4" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="L4" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="M4" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="N4" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O4" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="P4" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
     </row>
   </sheetData>
@@ -26971,16 +26971,16 @@
         <v>114.3813399321389</v>
       </c>
       <c r="F3" t="n">
-        <v>23.38876033398395</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23.38876033398401</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.444235365279098</v>
+        <v>8.799371314245661</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>64.00529135902983</v>
       </c>
       <c r="F4" t="n">
-        <v>28.6596579300724</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>28.65965793007238</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.665741019415734</v>
+        <v>9.237941808099492</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N4" t="n">
-        <v>28.6596579300724</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>28.65965793007238</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N4" t="n">
-        <v>28.6596579300724</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>28.65965793007238</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J5" t="n">
         <v>109.1233211798925</v>
@@ -31293,7 +31293,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M5" t="n">
         <v>225.7600302817866</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I6" t="n">
         <v>23.68487325669467</v>
@@ -31384,13 +31384,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S6" t="n">
         <v>12.77776283338877</v>
@@ -31399,7 +31399,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H7" t="n">
         <v>5.127625437558785</v>
@@ -31448,16 +31448,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O7" t="n">
         <v>81.51770992143554</v>
@@ -31466,7 +31466,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R7" t="n">
         <v>25.93173355231669</v>
@@ -31521,7 +31521,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I8" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J8" t="n">
         <v>109.1233211798925</v>
@@ -31530,7 +31530,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L8" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M8" t="n">
         <v>225.7600302817866</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H9" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I9" t="n">
         <v>23.68487325669467</v>
@@ -31621,13 +31621,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R9" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S9" t="n">
         <v>12.77776283338877</v>
@@ -31636,7 +31636,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H10" t="n">
         <v>5.127625437558785</v>
@@ -31685,16 +31685,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K10" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L10" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M10" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N10" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O10" t="n">
         <v>81.51770992143554</v>
@@ -31703,7 +31703,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R10" t="n">
         <v>25.93173355231669</v>
@@ -31846,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>202.559671138904</v>
+        <v>155.6054496757214</v>
       </c>
       <c r="M12" t="n">
         <v>206.1393252810481</v>
@@ -31855,10 +31855,10 @@
         <v>195.3470034423631</v>
       </c>
       <c r="O12" t="n">
-        <v>204.0154634253317</v>
+        <v>206.6015358034743</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.3425564993702</v>
       </c>
       <c r="Q12" t="n">
         <v>119.2172760429434</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.839563090509206</v>
+        <v>1.745537923337412</v>
       </c>
       <c r="H14" t="n">
-        <v>18.83942550067741</v>
+        <v>17.87649025737927</v>
       </c>
       <c r="I14" t="n">
-        <v>70.91975604685625</v>
+        <v>67.29485078946563</v>
       </c>
       <c r="J14" t="n">
-        <v>156.1306178531059</v>
+        <v>148.1503493208588</v>
       </c>
       <c r="K14" t="n">
-        <v>233.9993234743607</v>
+        <v>222.0389696157315</v>
       </c>
       <c r="L14" t="n">
-        <v>290.2968524055319</v>
+        <v>275.4589758370689</v>
       </c>
       <c r="M14" t="n">
-        <v>323.0111825163749</v>
+        <v>294.3515245863026</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0780128856931</v>
+        <v>293.4183549556207</v>
       </c>
       <c r="O14" t="n">
-        <v>309.9456856660333</v>
+        <v>294.1035027807166</v>
       </c>
       <c r="P14" t="n">
-        <v>264.5314718690872</v>
+        <v>251.0105352983242</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.6521186902262</v>
+        <v>188.4984584188031</v>
       </c>
       <c r="R14" t="n">
-        <v>115.554454984199</v>
+        <v>109.6481465768438</v>
       </c>
       <c r="S14" t="n">
-        <v>41.91904392497859</v>
+        <v>39.77644542805131</v>
       </c>
       <c r="T14" t="n">
-        <v>8.052687428704056</v>
+        <v>7.641092259409524</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1396430338669929</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9842530252663182</v>
+        <v>0.9339451256800131</v>
       </c>
       <c r="H15" t="n">
-        <v>9.505812112440495</v>
+        <v>9.019943713804338</v>
       </c>
       <c r="I15" t="n">
-        <v>33.88765898395</v>
+        <v>32.1555668271408</v>
       </c>
       <c r="J15" t="n">
-        <v>92.99032639149897</v>
+        <v>88.2373331240051</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>174.5829003017953</v>
+        <v>155.6054496757214</v>
       </c>
       <c r="M15" t="n">
-        <v>234.7989832111205</v>
+        <v>206.1393252810481</v>
       </c>
       <c r="N15" t="n">
-        <v>224.0066613724355</v>
+        <v>195.3470034423631</v>
       </c>
       <c r="O15" t="n">
-        <v>234.1788327264121</v>
+        <v>206.6015358034742</v>
       </c>
       <c r="P15" t="n">
-        <v>187.9491588335306</v>
+        <v>178.3425564993702</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.6390352953988</v>
+        <v>119.2172760429434</v>
       </c>
       <c r="R15" t="n">
-        <v>61.11002555118424</v>
+        <v>57.98652280318539</v>
       </c>
       <c r="S15" t="n">
-        <v>18.28206825439849</v>
+        <v>17.34762108445111</v>
       </c>
       <c r="T15" t="n">
-        <v>3.967230395700641</v>
+        <v>3.764454256578648</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06475348850436306</v>
+        <v>0.06144375826842194</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8251646731812818</v>
+        <v>0.7829882201199994</v>
       </c>
       <c r="H16" t="n">
-        <v>7.336464094284493</v>
+        <v>6.961477084339636</v>
       </c>
       <c r="I16" t="n">
-        <v>24.81495217166983</v>
+        <v>23.5465912014269</v>
       </c>
       <c r="J16" t="n">
-        <v>58.33914239391662</v>
+        <v>55.35726716248395</v>
       </c>
       <c r="K16" t="n">
-        <v>95.86913202960709</v>
+        <v>90.96899502848719</v>
       </c>
       <c r="L16" t="n">
-        <v>122.6794824109699</v>
+        <v>116.4089941076588</v>
       </c>
       <c r="M16" t="n">
-        <v>129.3483132696804</v>
+        <v>122.7369625411741</v>
       </c>
       <c r="N16" t="n">
-        <v>126.272699487823</v>
+        <v>119.8185519025451</v>
       </c>
       <c r="O16" t="n">
-        <v>116.6332758056598</v>
+        <v>110.6718258765978</v>
       </c>
       <c r="P16" t="n">
-        <v>99.79991647276154</v>
+        <v>94.6988661861497</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.09628913338898</v>
+        <v>65.56458632295741</v>
       </c>
       <c r="R16" t="n">
-        <v>37.10240430504199</v>
+        <v>35.20599760648651</v>
       </c>
       <c r="S16" t="n">
-        <v>14.38036980444106</v>
+        <v>13.64534925427307</v>
       </c>
       <c r="T16" t="n">
-        <v>3.525703603592749</v>
+        <v>3.345495122330906</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04270844837018183</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M17" t="n">
-        <v>323.0111825163749</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N17" t="n">
         <v>322.0780128856931</v>
@@ -32317,10 +32317,10 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L18" t="n">
-        <v>174.5829003017953</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M18" t="n">
         <v>234.7989832111205</v>
@@ -32329,10 +32329,10 @@
         <v>224.0066613724355</v>
       </c>
       <c r="O18" t="n">
-        <v>234.1788327264121</v>
+        <v>227.9345477768583</v>
       </c>
       <c r="P18" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>125.6390352953988</v>
@@ -32481,7 +32481,7 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M20" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N20" t="n">
         <v>322.0780128856931</v>
@@ -32566,10 +32566,10 @@
         <v>224.0066613724355</v>
       </c>
       <c r="O21" t="n">
-        <v>173.959796357658</v>
+        <v>227.9345477768583</v>
       </c>
       <c r="P21" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>125.6390352953988</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.857429363334449</v>
+        <v>1.8749374475514</v>
       </c>
       <c r="H23" t="n">
-        <v>19.02239846724893</v>
+        <v>19.20170313473578</v>
       </c>
       <c r="I23" t="n">
-        <v>71.60854552995143</v>
+        <v>72.28352594672543</v>
       </c>
       <c r="J23" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891158</v>
       </c>
       <c r="K23" t="n">
-        <v>236.2719803762546</v>
+        <v>238.4990743439666</v>
       </c>
       <c r="L23" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544679</v>
       </c>
       <c r="M23" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873601</v>
       </c>
       <c r="N23" t="n">
-        <v>326.7437539051089</v>
+        <v>331.3159546937926</v>
       </c>
       <c r="O23" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661262</v>
       </c>
       <c r="P23" t="n">
-        <v>267.1006642341982</v>
+        <v>269.618348629701</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892664</v>
       </c>
       <c r="R23" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S23" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607758</v>
       </c>
       <c r="T23" t="n">
-        <v>8.130897037996556</v>
+        <v>8.207538676656259</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.149994995804112</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9938123239765413</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H24" t="n">
-        <v>9.598134813141861</v>
+        <v>9.688606599553411</v>
       </c>
       <c r="I24" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882574</v>
       </c>
       <c r="J24" t="n">
-        <v>93.8934704858714</v>
+        <v>94.77850806584016</v>
       </c>
       <c r="K24" t="n">
-        <v>160.4788961922997</v>
+        <v>161.991566383178</v>
       </c>
       <c r="L24" t="n">
-        <v>215.7836802563977</v>
+        <v>217.8176520031297</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4647242305363</v>
+        <v>244.03692501922</v>
       </c>
       <c r="N24" t="n">
-        <v>228.6724023918512</v>
+        <v>233.244603180535</v>
       </c>
       <c r="O24" t="n">
-        <v>233.4583142232376</v>
+        <v>238.6820355158827</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>134.1637103760409</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.859271390409</v>
+        <v>128.0550438117178</v>
       </c>
       <c r="R24" t="n">
-        <v>61.70354060619265</v>
+        <v>62.28515668632068</v>
       </c>
       <c r="S24" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228368</v>
       </c>
       <c r="T24" t="n">
-        <v>4.005761077782636</v>
+        <v>4.043519284736412</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06538238973529879</v>
+        <v>0.06599868255826576</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.833178868102277</v>
+        <v>0.8410323919446758</v>
       </c>
       <c r="H25" t="n">
-        <v>7.407717572763887</v>
+        <v>7.477542539289941</v>
       </c>
       <c r="I25" t="n">
-        <v>25.0559608698394</v>
+        <v>25.29213775048171</v>
       </c>
       <c r="J25" t="n">
-        <v>58.90574597483099</v>
+        <v>59.46099011048857</v>
       </c>
       <c r="K25" t="n">
-        <v>96.80023576679181</v>
+        <v>97.71267244593595</v>
       </c>
       <c r="L25" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351203</v>
       </c>
       <c r="M25" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118368</v>
       </c>
       <c r="N25" t="n">
-        <v>127.4990898796876</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O25" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P25" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311997</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.76736867354613</v>
+        <v>70.42499420184009</v>
       </c>
       <c r="R25" t="n">
-        <v>37.46275165121692</v>
+        <v>37.81587464143968</v>
       </c>
       <c r="S25" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689039</v>
       </c>
       <c r="T25" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309068</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04544612007830608</v>
+        <v>0.04587449410607328</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.857429363334449</v>
+        <v>1.8749374475514</v>
       </c>
       <c r="H26" t="n">
-        <v>19.02239846724893</v>
+        <v>19.20170313473578</v>
       </c>
       <c r="I26" t="n">
-        <v>71.60854552995143</v>
+        <v>72.28352594672543</v>
       </c>
       <c r="J26" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891158</v>
       </c>
       <c r="K26" t="n">
-        <v>236.2719803762546</v>
+        <v>238.4990743439666</v>
       </c>
       <c r="L26" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544679</v>
       </c>
       <c r="M26" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873601</v>
       </c>
       <c r="N26" t="n">
-        <v>326.7437539051089</v>
+        <v>331.3159546937926</v>
       </c>
       <c r="O26" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661262</v>
       </c>
       <c r="P26" t="n">
-        <v>267.1006642341982</v>
+        <v>269.618348629701</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892664</v>
       </c>
       <c r="R26" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S26" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607758</v>
       </c>
       <c r="T26" t="n">
-        <v>8.130897037996556</v>
+        <v>8.207538676656259</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.149994995804112</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9938123239765413</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H27" t="n">
-        <v>9.598134813141861</v>
+        <v>9.688606599553411</v>
       </c>
       <c r="I27" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882574</v>
       </c>
       <c r="J27" t="n">
-        <v>93.8934704858714</v>
+        <v>94.77850806584016</v>
       </c>
       <c r="K27" t="n">
-        <v>160.4788961922997</v>
+        <v>161.991566383178</v>
       </c>
       <c r="L27" t="n">
-        <v>215.7836802563977</v>
+        <v>217.8176520031297</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4647242305363</v>
+        <v>244.03692501922</v>
       </c>
       <c r="N27" t="n">
-        <v>228.6724023918512</v>
+        <v>233.244603180535</v>
       </c>
       <c r="O27" t="n">
-        <v>233.4583142232376</v>
+        <v>238.6820355158827</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>134.1637103760409</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.859271390409</v>
+        <v>128.0550438117178</v>
       </c>
       <c r="R27" t="n">
-        <v>61.70354060619265</v>
+        <v>62.28515668632068</v>
       </c>
       <c r="S27" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228368</v>
       </c>
       <c r="T27" t="n">
-        <v>4.005761077782636</v>
+        <v>4.043519284736412</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06538238973529879</v>
+        <v>0.06599868255826576</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.833178868102277</v>
+        <v>0.8410323919446758</v>
       </c>
       <c r="H28" t="n">
-        <v>7.407717572763887</v>
+        <v>7.477542539289941</v>
       </c>
       <c r="I28" t="n">
-        <v>25.0559608698394</v>
+        <v>25.29213775048171</v>
       </c>
       <c r="J28" t="n">
-        <v>58.90574597483099</v>
+        <v>59.46099011048857</v>
       </c>
       <c r="K28" t="n">
-        <v>96.80023576679181</v>
+        <v>97.71267244593595</v>
       </c>
       <c r="L28" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351203</v>
       </c>
       <c r="M28" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118368</v>
       </c>
       <c r="N28" t="n">
-        <v>127.4990898796876</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O28" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P28" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311997</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.76736867354613</v>
+        <v>70.42499420184009</v>
       </c>
       <c r="R28" t="n">
-        <v>37.46275165121692</v>
+        <v>37.81587464143968</v>
       </c>
       <c r="S28" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689039</v>
       </c>
       <c r="T28" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309068</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04544612007830608</v>
+        <v>0.04587449410607328</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.857429363334449</v>
+        <v>1.8749374475514</v>
       </c>
       <c r="H29" t="n">
-        <v>19.02239846724893</v>
+        <v>19.20170313473578</v>
       </c>
       <c r="I29" t="n">
-        <v>71.60854552995143</v>
+        <v>72.28352594672543</v>
       </c>
       <c r="J29" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891158</v>
       </c>
       <c r="K29" t="n">
-        <v>236.2719803762546</v>
+        <v>238.4990743439666</v>
       </c>
       <c r="L29" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544679</v>
       </c>
       <c r="M29" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873601</v>
       </c>
       <c r="N29" t="n">
-        <v>326.7437539051089</v>
+        <v>331.3159546937926</v>
       </c>
       <c r="O29" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661262</v>
       </c>
       <c r="P29" t="n">
-        <v>267.1006642341982</v>
+        <v>269.618348629701</v>
       </c>
       <c r="Q29" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892664</v>
       </c>
       <c r="R29" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S29" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607758</v>
       </c>
       <c r="T29" t="n">
-        <v>8.130897037996556</v>
+        <v>8.207538676656259</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.149994995804112</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9938123239765413</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H30" t="n">
-        <v>9.598134813141861</v>
+        <v>9.688606599553411</v>
       </c>
       <c r="I30" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882574</v>
       </c>
       <c r="J30" t="n">
-        <v>93.8934704858714</v>
+        <v>94.77850806584016</v>
       </c>
       <c r="K30" t="n">
-        <v>160.4788961922997</v>
+        <v>161.991566383178</v>
       </c>
       <c r="L30" t="n">
-        <v>215.7836802563977</v>
+        <v>217.8176520031297</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4647242305363</v>
+        <v>186.6372593138094</v>
       </c>
       <c r="N30" t="n">
-        <v>228.6724023918512</v>
+        <v>233.244603180535</v>
       </c>
       <c r="O30" t="n">
-        <v>233.4583142232376</v>
+        <v>238.6820355158827</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>191.5633760814516</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.859271390409</v>
+        <v>128.0550438117178</v>
       </c>
       <c r="R30" t="n">
-        <v>61.70354060619265</v>
+        <v>62.28515668632068</v>
       </c>
       <c r="S30" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228368</v>
       </c>
       <c r="T30" t="n">
-        <v>4.005761077782636</v>
+        <v>4.043519284736412</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06538238973529879</v>
+        <v>0.06599868255826576</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.833178868102277</v>
+        <v>0.8410323919446758</v>
       </c>
       <c r="H31" t="n">
-        <v>7.407717572763887</v>
+        <v>7.477542539289941</v>
       </c>
       <c r="I31" t="n">
-        <v>25.0559608698394</v>
+        <v>25.29213775048171</v>
       </c>
       <c r="J31" t="n">
-        <v>58.90574597483099</v>
+        <v>59.46099011048857</v>
       </c>
       <c r="K31" t="n">
-        <v>96.80023576679181</v>
+        <v>97.71267244593595</v>
       </c>
       <c r="L31" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351203</v>
       </c>
       <c r="M31" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118368</v>
       </c>
       <c r="N31" t="n">
-        <v>127.4990898796876</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O31" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P31" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311997</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.76736867354613</v>
+        <v>70.42499420184009</v>
       </c>
       <c r="R31" t="n">
-        <v>37.46275165121692</v>
+        <v>37.81587464143968</v>
       </c>
       <c r="S31" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689039</v>
       </c>
       <c r="T31" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309068</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04544612007830608</v>
+        <v>0.04587449410607328</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.857429363334449</v>
+        <v>1.8749374475514</v>
       </c>
       <c r="H32" t="n">
-        <v>19.02239846724893</v>
+        <v>19.20170313473578</v>
       </c>
       <c r="I32" t="n">
-        <v>71.60854552995143</v>
+        <v>72.28352594672543</v>
       </c>
       <c r="J32" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891158</v>
       </c>
       <c r="K32" t="n">
-        <v>236.2719803762546</v>
+        <v>238.4990743439666</v>
       </c>
       <c r="L32" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544679</v>
       </c>
       <c r="M32" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873601</v>
       </c>
       <c r="N32" t="n">
-        <v>326.7437539051089</v>
+        <v>331.3159546937926</v>
       </c>
       <c r="O32" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661262</v>
       </c>
       <c r="P32" t="n">
-        <v>267.1006642341982</v>
+        <v>269.618348629701</v>
       </c>
       <c r="Q32" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892664</v>
       </c>
       <c r="R32" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S32" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607758</v>
       </c>
       <c r="T32" t="n">
-        <v>8.130897037996556</v>
+        <v>8.207538676656259</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.149994995804112</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9938123239765413</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H33" t="n">
-        <v>9.598134813141861</v>
+        <v>9.688606599553411</v>
       </c>
       <c r="I33" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882574</v>
       </c>
       <c r="J33" t="n">
-        <v>93.8934704858714</v>
+        <v>94.77850806584016</v>
       </c>
       <c r="K33" t="n">
-        <v>160.4788961922997</v>
+        <v>161.991566383178</v>
       </c>
       <c r="L33" t="n">
-        <v>215.7836802563977</v>
+        <v>217.8176520031297</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4647242305363</v>
+        <v>186.6372593138094</v>
       </c>
       <c r="N33" t="n">
-        <v>225.677483550372</v>
+        <v>233.244603180535</v>
       </c>
       <c r="O33" t="n">
-        <v>236.4532330647168</v>
+        <v>238.6820355158827</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>191.5633760814516</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.859271390409</v>
+        <v>128.0550438117178</v>
       </c>
       <c r="R33" t="n">
-        <v>61.70354060619265</v>
+        <v>62.28515668632068</v>
       </c>
       <c r="S33" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228368</v>
       </c>
       <c r="T33" t="n">
-        <v>4.005761077782636</v>
+        <v>4.043519284736412</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06538238973529879</v>
+        <v>0.06599868255826576</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.833178868102277</v>
+        <v>0.8410323919446758</v>
       </c>
       <c r="H34" t="n">
-        <v>7.407717572763887</v>
+        <v>7.477542539289941</v>
       </c>
       <c r="I34" t="n">
-        <v>25.0559608698394</v>
+        <v>25.29213775048171</v>
       </c>
       <c r="J34" t="n">
-        <v>58.90574597483099</v>
+        <v>59.46099011048857</v>
       </c>
       <c r="K34" t="n">
-        <v>96.80023576679181</v>
+        <v>97.71267244593595</v>
       </c>
       <c r="L34" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351203</v>
       </c>
       <c r="M34" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118368</v>
       </c>
       <c r="N34" t="n">
-        <v>127.4990898796876</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O34" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P34" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311997</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.76736867354613</v>
+        <v>70.42499420184009</v>
       </c>
       <c r="R34" t="n">
-        <v>37.46275165121692</v>
+        <v>37.81587464143968</v>
       </c>
       <c r="S34" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689039</v>
       </c>
       <c r="T34" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309068</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04544612007830608</v>
+        <v>0.04587449410607328</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.857429363334449</v>
+        <v>1.8749374475514</v>
       </c>
       <c r="H35" t="n">
-        <v>19.02239846724893</v>
+        <v>19.20170313473578</v>
       </c>
       <c r="I35" t="n">
-        <v>71.60854552995143</v>
+        <v>72.28352594672543</v>
       </c>
       <c r="J35" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891158</v>
       </c>
       <c r="K35" t="n">
-        <v>236.2719803762546</v>
+        <v>238.4990743439666</v>
       </c>
       <c r="L35" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544679</v>
       </c>
       <c r="M35" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873601</v>
       </c>
       <c r="N35" t="n">
-        <v>326.7437539051089</v>
+        <v>331.3159546937926</v>
       </c>
       <c r="O35" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661262</v>
       </c>
       <c r="P35" t="n">
-        <v>267.1006642341982</v>
+        <v>269.618348629701</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892664</v>
       </c>
       <c r="R35" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S35" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607758</v>
       </c>
       <c r="T35" t="n">
-        <v>8.130897037996556</v>
+        <v>8.207538676656259</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.149994995804112</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9938123239765413</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H36" t="n">
-        <v>9.598134813141861</v>
+        <v>9.688606599553411</v>
       </c>
       <c r="I36" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882574</v>
       </c>
       <c r="J36" t="n">
-        <v>93.8934704858714</v>
+        <v>94.77850806584016</v>
       </c>
       <c r="K36" t="n">
-        <v>160.4788961922997</v>
+        <v>161.991566383178</v>
       </c>
       <c r="L36" t="n">
-        <v>215.7836802563977</v>
+        <v>217.8176520031297</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4647242305363</v>
+        <v>244.03692501922</v>
       </c>
       <c r="N36" t="n">
-        <v>169.8773253450064</v>
+        <v>233.244603180535</v>
       </c>
       <c r="O36" t="n">
-        <v>236.4532330647168</v>
+        <v>181.2823698104721</v>
       </c>
       <c r="P36" t="n">
-        <v>189.7745656196959</v>
+        <v>191.5633760814516</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.859271390409</v>
+        <v>128.0550438117178</v>
       </c>
       <c r="R36" t="n">
-        <v>61.70354060619265</v>
+        <v>62.28515668632068</v>
       </c>
       <c r="S36" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228368</v>
       </c>
       <c r="T36" t="n">
-        <v>4.005761077782636</v>
+        <v>4.043519284736412</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06538238973529879</v>
+        <v>0.06599868255826576</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.833178868102277</v>
+        <v>0.8410323919446758</v>
       </c>
       <c r="H37" t="n">
-        <v>7.407717572763887</v>
+        <v>7.477542539289941</v>
       </c>
       <c r="I37" t="n">
-        <v>25.0559608698394</v>
+        <v>25.29213775048171</v>
       </c>
       <c r="J37" t="n">
-        <v>58.90574597483099</v>
+        <v>59.46099011048857</v>
       </c>
       <c r="K37" t="n">
-        <v>96.80023576679181</v>
+        <v>97.71267244593595</v>
       </c>
       <c r="L37" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351203</v>
       </c>
       <c r="M37" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118368</v>
       </c>
       <c r="N37" t="n">
-        <v>127.4990898796876</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O37" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P37" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311997</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.76736867354613</v>
+        <v>70.42499420184009</v>
       </c>
       <c r="R37" t="n">
-        <v>37.46275165121692</v>
+        <v>37.81587464143968</v>
       </c>
       <c r="S37" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689039</v>
       </c>
       <c r="T37" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309068</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04544612007830608</v>
+        <v>0.04587449410607328</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.857429363334449</v>
+        <v>1.8749374475514</v>
       </c>
       <c r="H38" t="n">
-        <v>19.02239846724893</v>
+        <v>19.20170313473578</v>
       </c>
       <c r="I38" t="n">
-        <v>71.60854552995143</v>
+        <v>72.28352594672543</v>
       </c>
       <c r="J38" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891158</v>
       </c>
       <c r="K38" t="n">
-        <v>236.2719803762546</v>
+        <v>238.4990743439666</v>
       </c>
       <c r="L38" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544679</v>
       </c>
       <c r="M38" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873601</v>
       </c>
       <c r="N38" t="n">
-        <v>326.7437539051089</v>
+        <v>331.3159546937926</v>
       </c>
       <c r="O38" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661262</v>
       </c>
       <c r="P38" t="n">
-        <v>267.1006642341982</v>
+        <v>269.618348629701</v>
       </c>
       <c r="Q38" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892664</v>
       </c>
       <c r="R38" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S38" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607758</v>
       </c>
       <c r="T38" t="n">
-        <v>8.130897037996556</v>
+        <v>8.207538676656259</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.149994995804112</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9938123239765413</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H39" t="n">
-        <v>9.598134813141861</v>
+        <v>9.688606599553411</v>
       </c>
       <c r="I39" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882574</v>
       </c>
       <c r="J39" t="n">
-        <v>93.8934704858714</v>
+        <v>94.77850806584016</v>
       </c>
       <c r="K39" t="n">
-        <v>160.4788961922997</v>
+        <v>161.991566383178</v>
       </c>
       <c r="L39" t="n">
-        <v>215.7836802563977</v>
+        <v>217.8176520031297</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4647242305363</v>
+        <v>244.03692501922</v>
       </c>
       <c r="N39" t="n">
-        <v>169.8773253450064</v>
+        <v>175.8449374751244</v>
       </c>
       <c r="O39" t="n">
-        <v>236.4532330647168</v>
+        <v>238.6820355158827</v>
       </c>
       <c r="P39" t="n">
-        <v>189.7745656196959</v>
+        <v>191.5633760814516</v>
       </c>
       <c r="Q39" t="n">
-        <v>126.859271390409</v>
+        <v>128.0550438117178</v>
       </c>
       <c r="R39" t="n">
-        <v>61.70354060619265</v>
+        <v>62.28515668632068</v>
       </c>
       <c r="S39" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228368</v>
       </c>
       <c r="T39" t="n">
-        <v>4.005761077782636</v>
+        <v>4.043519284736412</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06538238973529879</v>
+        <v>0.06599868255826576</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.833178868102277</v>
+        <v>0.8410323919446758</v>
       </c>
       <c r="H40" t="n">
-        <v>7.407717572763887</v>
+        <v>7.477542539289941</v>
       </c>
       <c r="I40" t="n">
-        <v>25.0559608698394</v>
+        <v>25.29213775048171</v>
       </c>
       <c r="J40" t="n">
-        <v>58.90574597483099</v>
+        <v>59.46099011048857</v>
       </c>
       <c r="K40" t="n">
-        <v>96.80023576679181</v>
+        <v>97.71267244593595</v>
       </c>
       <c r="L40" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351203</v>
       </c>
       <c r="M40" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118368</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4990898796876</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O40" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P40" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311997</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.76736867354613</v>
+        <v>70.42499420184009</v>
       </c>
       <c r="R40" t="n">
-        <v>37.46275165121692</v>
+        <v>37.81587464143968</v>
       </c>
       <c r="S40" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689039</v>
       </c>
       <c r="T40" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309068</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04544612007830608</v>
+        <v>0.04587449410607328</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.857429363334449</v>
+        <v>1.8749374475514</v>
       </c>
       <c r="H41" t="n">
-        <v>19.02239846724893</v>
+        <v>19.20170313473578</v>
       </c>
       <c r="I41" t="n">
-        <v>71.60854552995143</v>
+        <v>72.28352594672543</v>
       </c>
       <c r="J41" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891158</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2719803762546</v>
+        <v>238.4990743439666</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544679</v>
       </c>
       <c r="M41" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873601</v>
       </c>
       <c r="N41" t="n">
-        <v>326.7437539051089</v>
+        <v>331.3159546937926</v>
       </c>
       <c r="O41" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661262</v>
       </c>
       <c r="P41" t="n">
-        <v>267.1006642341982</v>
+        <v>269.618348629701</v>
       </c>
       <c r="Q41" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892664</v>
       </c>
       <c r="R41" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S41" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607758</v>
       </c>
       <c r="T41" t="n">
-        <v>8.130897037996556</v>
+        <v>8.207538676656259</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.149994995804112</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9938123239765413</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H42" t="n">
-        <v>9.598134813141861</v>
+        <v>9.688606599553411</v>
       </c>
       <c r="I42" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882574</v>
       </c>
       <c r="J42" t="n">
-        <v>93.8934704858714</v>
+        <v>94.77850806584016</v>
       </c>
       <c r="K42" t="n">
-        <v>160.4788961922997</v>
+        <v>161.991566383178</v>
       </c>
       <c r="L42" t="n">
-        <v>215.7836802563977</v>
+        <v>217.8176520031297</v>
       </c>
       <c r="M42" t="n">
-        <v>236.469805389057</v>
+        <v>186.6372593138094</v>
       </c>
       <c r="N42" t="n">
-        <v>228.6724023918512</v>
+        <v>233.244603180535</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4532330647168</v>
+        <v>238.6820355158827</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>191.5633760814516</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.859271390409</v>
+        <v>128.0550438117178</v>
       </c>
       <c r="R42" t="n">
-        <v>61.70354060619265</v>
+        <v>62.28515668632068</v>
       </c>
       <c r="S42" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228368</v>
       </c>
       <c r="T42" t="n">
-        <v>4.005761077782636</v>
+        <v>4.043519284736412</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06538238973529879</v>
+        <v>0.06599868255826576</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.833178868102277</v>
+        <v>0.8410323919446758</v>
       </c>
       <c r="H43" t="n">
-        <v>7.407717572763887</v>
+        <v>7.477542539289941</v>
       </c>
       <c r="I43" t="n">
-        <v>25.0559608698394</v>
+        <v>25.29213775048171</v>
       </c>
       <c r="J43" t="n">
-        <v>58.90574597483099</v>
+        <v>59.46099011048857</v>
       </c>
       <c r="K43" t="n">
-        <v>96.80023576679181</v>
+        <v>97.71267244593595</v>
       </c>
       <c r="L43" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351203</v>
       </c>
       <c r="M43" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118368</v>
       </c>
       <c r="N43" t="n">
-        <v>127.4990898796876</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O43" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P43" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311997</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.76736867354613</v>
+        <v>70.42499420184009</v>
       </c>
       <c r="R43" t="n">
-        <v>37.46275165121692</v>
+        <v>37.81587464143968</v>
       </c>
       <c r="S43" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689039</v>
       </c>
       <c r="T43" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309068</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04544612007830608</v>
+        <v>0.04587449410607328</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.857429363334449</v>
+        <v>1.8749374475514</v>
       </c>
       <c r="H44" t="n">
-        <v>19.02239846724893</v>
+        <v>19.20170313473578</v>
       </c>
       <c r="I44" t="n">
-        <v>71.60854552995143</v>
+        <v>72.28352594672543</v>
       </c>
       <c r="J44" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891158</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2719803762546</v>
+        <v>238.4990743439666</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544679</v>
       </c>
       <c r="M44" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873601</v>
       </c>
       <c r="N44" t="n">
-        <v>326.7437539051089</v>
+        <v>331.3159546937926</v>
       </c>
       <c r="O44" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661262</v>
       </c>
       <c r="P44" t="n">
-        <v>267.1006642341982</v>
+        <v>269.618348629701</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892664</v>
       </c>
       <c r="R44" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S44" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607758</v>
       </c>
       <c r="T44" t="n">
-        <v>8.130897037996556</v>
+        <v>8.207538676656259</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.149994995804112</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9938123239765413</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H45" t="n">
-        <v>9.598134813141861</v>
+        <v>9.688606599553411</v>
       </c>
       <c r="I45" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882574</v>
       </c>
       <c r="J45" t="n">
-        <v>93.8934704858714</v>
+        <v>94.77850806584016</v>
       </c>
       <c r="K45" t="n">
-        <v>160.4788961922997</v>
+        <v>161.991566383178</v>
       </c>
       <c r="L45" t="n">
-        <v>215.7836802563977</v>
+        <v>217.8176520031297</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4647242305363</v>
+        <v>244.03692501922</v>
       </c>
       <c r="N45" t="n">
-        <v>225.677483550372</v>
+        <v>175.8449374751244</v>
       </c>
       <c r="O45" t="n">
-        <v>236.4532330647168</v>
+        <v>238.6820355158827</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>191.5633760814516</v>
       </c>
       <c r="Q45" t="n">
-        <v>126.859271390409</v>
+        <v>128.0550438117178</v>
       </c>
       <c r="R45" t="n">
-        <v>61.70354060619265</v>
+        <v>62.28515668632068</v>
       </c>
       <c r="S45" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228368</v>
       </c>
       <c r="T45" t="n">
-        <v>4.005761077782636</v>
+        <v>4.043519284736412</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06538238973529879</v>
+        <v>0.06599868255826576</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.833178868102277</v>
+        <v>0.8410323919446758</v>
       </c>
       <c r="H46" t="n">
-        <v>7.407717572763887</v>
+        <v>7.477542539289941</v>
       </c>
       <c r="I46" t="n">
-        <v>25.0559608698394</v>
+        <v>25.29213775048171</v>
       </c>
       <c r="J46" t="n">
-        <v>58.90574597483099</v>
+        <v>59.46099011048857</v>
       </c>
       <c r="K46" t="n">
-        <v>96.80023576679181</v>
+        <v>97.71267244593595</v>
       </c>
       <c r="L46" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351203</v>
       </c>
       <c r="M46" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118368</v>
       </c>
       <c r="N46" t="n">
-        <v>127.4990898796876</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O46" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P46" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311997</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.76736867354613</v>
+        <v>70.42499420184009</v>
       </c>
       <c r="R46" t="n">
-        <v>37.46275165121692</v>
+        <v>37.81587464143968</v>
       </c>
       <c r="S46" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689039</v>
       </c>
       <c r="T46" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309068</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04544612007830608</v>
+        <v>0.04587449410607328</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>64.00529135902983</v>
+        <v>17.05106989584721</v>
       </c>
       <c r="M12" t="n">
         <v>64.00529135902983</v>
@@ -35503,10 +35503,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="O12" t="n">
-        <v>61.41921898088722</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.36814908503999</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.90947242938012</v>
+        <v>1.949118570750926</v>
       </c>
       <c r="L14" t="n">
-        <v>54.53043743554463</v>
+        <v>39.69256086708162</v>
       </c>
       <c r="M14" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="N14" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="O14" t="n">
-        <v>79.84747424434656</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="P14" t="n">
-        <v>33.29847611381769</v>
+        <v>19.77753954305464</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>36.02852052192112</v>
+        <v>17.05106989584721</v>
       </c>
       <c r="M15" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="N15" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="O15" t="n">
-        <v>91.58258828196767</v>
+        <v>64.00529135902981</v>
       </c>
       <c r="P15" t="n">
-        <v>53.97475141920032</v>
+        <v>44.36814908503999</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L18" t="n">
-        <v>36.02852052192112</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M18" t="n">
         <v>92.6649492891022</v>
@@ -35977,10 +35977,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O18" t="n">
-        <v>91.5825882819677</v>
+        <v>85.33830333241384</v>
       </c>
       <c r="P18" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O21" t="n">
-        <v>31.36355191321351</v>
+        <v>85.33830333241384</v>
       </c>
       <c r="P21" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>16.1821293312741</v>
+        <v>18.40922329898609</v>
       </c>
       <c r="L23" t="n">
-        <v>57.34986928441413</v>
+        <v>60.11277628448062</v>
       </c>
       <c r="M23" t="n">
-        <v>95.80211046732765</v>
+        <v>98.87637686008733</v>
       </c>
       <c r="N23" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O23" t="n">
-        <v>82.85774021983073</v>
+        <v>85.80765544443952</v>
       </c>
       <c r="P23" t="n">
-        <v>35.86766847892864</v>
+        <v>38.38535287443148</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>22.63745721794066</v>
+        <v>24.15012740881897</v>
       </c>
       <c r="L24" t="n">
-        <v>77.22930047652355</v>
+        <v>79.26327222325551</v>
       </c>
       <c r="M24" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="N24" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O24" t="n">
-        <v>90.86206977879314</v>
+        <v>96.08579107143831</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.1893029617107082</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.015348749355326</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>16.1821293312741</v>
+        <v>18.40922329898609</v>
       </c>
       <c r="L26" t="n">
-        <v>57.34986928441413</v>
+        <v>60.11277628448062</v>
       </c>
       <c r="M26" t="n">
-        <v>95.80211046732765</v>
+        <v>98.87637686008733</v>
       </c>
       <c r="N26" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O26" t="n">
-        <v>82.85774021983073</v>
+        <v>85.80765544443952</v>
       </c>
       <c r="P26" t="n">
-        <v>35.86766847892864</v>
+        <v>38.38535287443148</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>22.63745721794066</v>
+        <v>24.15012740881897</v>
       </c>
       <c r="L27" t="n">
-        <v>77.22930047652355</v>
+        <v>79.26327222325551</v>
       </c>
       <c r="M27" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="N27" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O27" t="n">
-        <v>90.86206977879314</v>
+        <v>96.08579107143831</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.1893029617107082</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.015348749355326</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>16.1821293312741</v>
+        <v>18.40922329898609</v>
       </c>
       <c r="L29" t="n">
-        <v>57.34986928441413</v>
+        <v>60.11277628448062</v>
       </c>
       <c r="M29" t="n">
-        <v>95.80211046732765</v>
+        <v>98.87637686008733</v>
       </c>
       <c r="N29" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O29" t="n">
-        <v>82.85774021983073</v>
+        <v>85.80765544443952</v>
       </c>
       <c r="P29" t="n">
-        <v>35.86766847892864</v>
+        <v>38.38535287443148</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>22.63745721794066</v>
+        <v>24.15012740881897</v>
       </c>
       <c r="L30" t="n">
-        <v>77.22930047652355</v>
+        <v>79.26327222325551</v>
       </c>
       <c r="M30" t="n">
-        <v>97.33069030851793</v>
+        <v>44.50322539179104</v>
       </c>
       <c r="N30" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O30" t="n">
-        <v>90.86206977879314</v>
+        <v>96.08579107143831</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>57.58896866712135</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.015348749355326</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>16.1821293312741</v>
+        <v>18.40922329898609</v>
       </c>
       <c r="L32" t="n">
-        <v>57.34986928441413</v>
+        <v>60.11277628448062</v>
       </c>
       <c r="M32" t="n">
-        <v>95.80211046732765</v>
+        <v>98.87637686008733</v>
       </c>
       <c r="N32" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O32" t="n">
-        <v>82.85774021983073</v>
+        <v>85.80765544443952</v>
       </c>
       <c r="P32" t="n">
-        <v>35.86766847892864</v>
+        <v>38.38535287443148</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>22.63745721794066</v>
+        <v>24.15012740881897</v>
       </c>
       <c r="L33" t="n">
-        <v>77.22930047652355</v>
+        <v>79.26327222325551</v>
       </c>
       <c r="M33" t="n">
-        <v>97.33069030851793</v>
+        <v>44.50322539179104</v>
       </c>
       <c r="N33" t="n">
-        <v>94.33577146703871</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O33" t="n">
-        <v>93.85698862027238</v>
+        <v>96.08579107143831</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>57.58896866712135</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.015348749355326</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>16.1821293312741</v>
+        <v>18.40922329898609</v>
       </c>
       <c r="L35" t="n">
-        <v>57.34986928441413</v>
+        <v>60.11277628448062</v>
       </c>
       <c r="M35" t="n">
-        <v>95.80211046732765</v>
+        <v>98.87637686008733</v>
       </c>
       <c r="N35" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O35" t="n">
-        <v>82.85774021983073</v>
+        <v>85.80765544443952</v>
       </c>
       <c r="P35" t="n">
-        <v>35.86766847892864</v>
+        <v>38.38535287443148</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>22.63745721794066</v>
+        <v>24.15012740881897</v>
       </c>
       <c r="L36" t="n">
-        <v>77.22930047652355</v>
+        <v>79.26327222325551</v>
       </c>
       <c r="M36" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="N36" t="n">
-        <v>38.53561326167307</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O36" t="n">
-        <v>93.85698862027238</v>
+        <v>38.68612536602766</v>
       </c>
       <c r="P36" t="n">
-        <v>55.80015820536562</v>
+        <v>57.58896866712135</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.015348749355326</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>16.1821293312741</v>
+        <v>18.40922329898609</v>
       </c>
       <c r="L38" t="n">
-        <v>57.34986928441413</v>
+        <v>60.11277628448062</v>
       </c>
       <c r="M38" t="n">
-        <v>95.80211046732765</v>
+        <v>98.87637686008733</v>
       </c>
       <c r="N38" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O38" t="n">
-        <v>82.85774021983073</v>
+        <v>85.80765544443952</v>
       </c>
       <c r="P38" t="n">
-        <v>35.86766847892864</v>
+        <v>38.38535287443148</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>22.63745721794066</v>
+        <v>24.15012740881897</v>
       </c>
       <c r="L39" t="n">
-        <v>77.22930047652355</v>
+        <v>79.26327222325551</v>
       </c>
       <c r="M39" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="N39" t="n">
-        <v>38.53561326167307</v>
+        <v>44.50322539179107</v>
       </c>
       <c r="O39" t="n">
-        <v>93.85698862027238</v>
+        <v>96.08579107143831</v>
       </c>
       <c r="P39" t="n">
-        <v>55.80015820536562</v>
+        <v>57.58896866712135</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.015348749355326</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>16.1821293312741</v>
+        <v>18.40922329898609</v>
       </c>
       <c r="L41" t="n">
-        <v>57.34986928441413</v>
+        <v>60.11277628448062</v>
       </c>
       <c r="M41" t="n">
-        <v>95.80211046732765</v>
+        <v>98.87637686008733</v>
       </c>
       <c r="N41" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O41" t="n">
-        <v>82.85774021983073</v>
+        <v>85.80765544443952</v>
       </c>
       <c r="P41" t="n">
-        <v>35.86766847892864</v>
+        <v>38.38535287443148</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>22.63745721794066</v>
+        <v>24.15012740881897</v>
       </c>
       <c r="L42" t="n">
-        <v>77.22930047652355</v>
+        <v>79.26327222325551</v>
       </c>
       <c r="M42" t="n">
-        <v>94.33577146703871</v>
+        <v>44.50322539179104</v>
       </c>
       <c r="N42" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O42" t="n">
-        <v>93.85698862027238</v>
+        <v>96.08579107143831</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>57.58896866712135</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.015348749355326</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>16.1821293312741</v>
+        <v>18.40922329898609</v>
       </c>
       <c r="L44" t="n">
-        <v>57.34986928441413</v>
+        <v>60.11277628448062</v>
       </c>
       <c r="M44" t="n">
-        <v>95.80211046732765</v>
+        <v>98.87637686008733</v>
       </c>
       <c r="N44" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="O44" t="n">
-        <v>82.85774021983073</v>
+        <v>85.80765544443952</v>
       </c>
       <c r="P44" t="n">
-        <v>35.86766847892864</v>
+        <v>38.38535287443148</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>22.63745721794066</v>
+        <v>24.15012740881897</v>
       </c>
       <c r="L45" t="n">
-        <v>77.22930047652355</v>
+        <v>79.26327222325551</v>
       </c>
       <c r="M45" t="n">
-        <v>97.33069030851793</v>
+        <v>101.9028910972017</v>
       </c>
       <c r="N45" t="n">
-        <v>94.33577146703871</v>
+        <v>44.50322539179107</v>
       </c>
       <c r="O45" t="n">
-        <v>93.85698862027238</v>
+        <v>96.08579107143831</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>57.58896866712135</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.015348749355326</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
